--- a/teaching/traditional_assets/database/data/turkey/turkey_healthcare_products.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_healthcare_products.xlsx
@@ -647,10 +647,10 @@
         <v>0.3504901960784313</v>
       </c>
       <c r="X2">
-        <v>0.105916230198395</v>
+        <v>0.1039362895273098</v>
       </c>
       <c r="Y2">
-        <v>0.2445739658800364</v>
+        <v>0.2465539065511216</v>
       </c>
       <c r="Z2">
         <v>1.61865918939587</v>
@@ -659,10 +659,10 @@
         <v>0.2803976548559776</v>
       </c>
       <c r="AB2">
-        <v>0.1051470923720046</v>
+        <v>0.1031116074148062</v>
       </c>
       <c r="AC2">
-        <v>0.1752505624839729</v>
+        <v>0.1772860474411714</v>
       </c>
       <c r="AD2">
         <v>1.36</v>
@@ -778,10 +778,10 @@
         <v>0.3504901960784313</v>
       </c>
       <c r="X3">
-        <v>0.105916230198395</v>
+        <v>0.1039362895273098</v>
       </c>
       <c r="Y3">
-        <v>0.2445739658800364</v>
+        <v>0.2465539065511216</v>
       </c>
       <c r="Z3">
         <v>1.61865918939587</v>
@@ -790,10 +790,10 @@
         <v>0.2803976548559776</v>
       </c>
       <c r="AB3">
-        <v>0.1051470923720046</v>
+        <v>0.1031116074148062</v>
       </c>
       <c r="AC3">
-        <v>0.1752505624839729</v>
+        <v>0.1772860474411714</v>
       </c>
       <c r="AD3">
         <v>1.36</v>
@@ -1093,37 +1093,37 @@
         <v>0.0179751519957706</v>
       </c>
       <c r="F2">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G2">
         <v>74.3</v>
       </c>
       <c r="H2">
-        <v>68.9612715765229</v>
+        <v>66.884262012523</v>
       </c>
       <c r="I2">
         <v>75.114</v>
       </c>
       <c r="J2">
-        <v>76.73787157652291</v>
+        <v>76.930662012523</v>
       </c>
       <c r="K2">
         <v>1.36</v>
       </c>
       <c r="L2">
-        <v>8.3226</v>
+        <v>10.5924</v>
       </c>
       <c r="M2">
-        <v>0.105147092372005</v>
+        <v>0.103111607414806</v>
       </c>
       <c r="N2">
-        <v>0.103256393545374</v>
+        <v>0.100896314070568</v>
       </c>
       <c r="O2">
-        <v>0.0631272831802361</v>
+        <v>0.058057283180236</v>
       </c>
       <c r="P2">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1136,19 +1136,19 @@
         </is>
       </c>
       <c r="S2">
-        <v>0.105916230198395</v>
+        <v>0.10393628952731</v>
       </c>
       <c r="T2">
-        <v>0.113213048927387</v>
+        <v>0.114451621012288</v>
       </c>
       <c r="U2">
         <v>0.941679026857245</v>
       </c>
       <c r="V2">
-        <v>1.0179279017241</v>
+        <v>1.04631190256819</v>
       </c>
       <c r="W2">
-        <v>4.54193248326525</v>
+        <v>4.595046105857163</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1157,16 +1157,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>74.3</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.08093241433363596</v>
+        <v>0.07443241433363595</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1361,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1046477285769359</v>
+        <v>0.1026041622684355</v>
       </c>
       <c r="C2">
-        <v>76.08217412536679</v>
+        <v>76.06851590966356</v>
       </c>
       <c r="D2">
-        <v>75.53617412536678</v>
+        <v>75.52251590966355</v>
       </c>
       <c r="E2">
         <v>-1.36</v>
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1046477285769359</v>
+        <v>0.1026041622684355</v>
       </c>
       <c r="T2">
         <v>0.9284236857290969</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1443,13 +1443,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.1044713235740666</v>
+        <v>0.102432253111445</v>
       </c>
       <c r="C3">
-        <v>75.47584772540152</v>
+        <v>75.45131994650458</v>
       </c>
       <c r="D3">
-        <v>75.68644772540152</v>
+        <v>75.66191994650458</v>
       </c>
       <c r="E3">
         <v>-0.6034000000000002</v>
@@ -1476,37 +1476,37 @@
         <v>1.1</v>
       </c>
       <c r="M3">
-        <v>0.01717482</v>
+        <v>0.01225692</v>
       </c>
       <c r="N3">
-        <v>1.08282518</v>
+        <v>1.08774308</v>
       </c>
       <c r="O3">
-        <v>0.2382215396</v>
+        <v>0.2393034776</v>
       </c>
       <c r="P3">
-        <v>0.8446036404000001</v>
+        <v>0.8484396024</v>
       </c>
       <c r="Q3">
-        <v>0.9646036404</v>
+        <v>0.9684396023999999</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.1053477409839056</v>
+        <v>0.1033392859711565</v>
       </c>
       <c r="T3">
         <v>0.9357385390105989</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>64.04725056798267</v>
+        <v>89.74522147488931</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.1042949185711973</v>
+        <v>0.1022603439544544</v>
       </c>
       <c r="C4">
-        <v>74.8701204336172</v>
+        <v>74.83463957589692</v>
       </c>
       <c r="D4">
-        <v>75.83732043361719</v>
+        <v>75.80183957589691</v>
       </c>
       <c r="E4">
         <v>0.1531999999999998</v>
@@ -1558,37 +1558,37 @@
         <v>1.1</v>
       </c>
       <c r="M4">
-        <v>0.03434964</v>
+        <v>0.02451384</v>
       </c>
       <c r="N4">
-        <v>1.06565036</v>
+        <v>1.07548616</v>
       </c>
       <c r="O4">
-        <v>0.2344430792</v>
+        <v>0.2366069552</v>
       </c>
       <c r="P4">
-        <v>0.8312072807999999</v>
+        <v>0.8388792048</v>
       </c>
       <c r="Q4">
-        <v>0.9512072807999998</v>
+        <v>0.9588792047999999</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.1060620393583646</v>
+        <v>0.1040894121984229</v>
       </c>
       <c r="T4">
         <v>0.9432026750121315</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>32.02362528399134</v>
+        <v>44.87261073744465</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1607,13 +1607,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.1041185135683281</v>
+        <v>0.1020884347974639</v>
       </c>
       <c r="C5">
-        <v>74.26499583994115</v>
+        <v>74.21847766355589</v>
       </c>
       <c r="D5">
-        <v>75.98879583994115</v>
+        <v>75.94227766355588</v>
       </c>
       <c r="E5">
         <v>0.9097999999999995</v>
@@ -1640,37 +1640,37 @@
         <v>1.1</v>
       </c>
       <c r="M5">
-        <v>0.05152445999999999</v>
+        <v>0.03677075999999999</v>
       </c>
       <c r="N5">
-        <v>1.04847554</v>
+        <v>1.06322924</v>
       </c>
       <c r="O5">
-        <v>0.2306646188</v>
+        <v>0.2339104328</v>
       </c>
       <c r="P5">
-        <v>0.8178109212000001</v>
+        <v>0.8293188072000001</v>
       </c>
       <c r="Q5">
-        <v>0.9378109212</v>
+        <v>0.9493188071999999</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.1067910655343589</v>
+        <v>0.104855004945839</v>
       </c>
       <c r="T5">
         <v>0.950820710725036</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>21.34908352266089</v>
+        <v>29.9150738249631</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1689,13 +1689,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.1039421085654588</v>
+        <v>0.1019165256404733</v>
       </c>
       <c r="C6">
-        <v>73.66047756303972</v>
+        <v>73.60283709647356</v>
       </c>
       <c r="D6">
-        <v>76.14087756303971</v>
+        <v>76.08323709647355</v>
       </c>
       <c r="E6">
         <v>1.6664</v>
@@ -1722,37 +1722,37 @@
         <v>1.1</v>
       </c>
       <c r="M6">
-        <v>0.06869928</v>
+        <v>0.04902767999999999</v>
       </c>
       <c r="N6">
-        <v>1.03130072</v>
+        <v>1.05097232</v>
       </c>
       <c r="O6">
-        <v>0.2268861584</v>
+        <v>0.2312139104</v>
       </c>
       <c r="P6">
-        <v>0.8044145616000001</v>
+        <v>0.8197584096</v>
       </c>
       <c r="Q6">
-        <v>0.9244145616</v>
+        <v>0.9397584095999999</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.1075352797556863</v>
+        <v>0.1056365475421597</v>
       </c>
       <c r="T6">
         <v>0.9585974555152926</v>
       </c>
       <c r="U6">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>16.01181264199567</v>
+        <v>22.43630536872233</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.1038281035625896</v>
+        <v>0.1017446164834827</v>
       </c>
       <c r="C7">
-        <v>73.00248744572191</v>
+        <v>72.9877207831164</v>
       </c>
       <c r="D7">
-        <v>76.23948744572191</v>
+        <v>76.2247207831164</v>
       </c>
       <c r="E7">
         <v>2.423</v>
@@ -1804,45 +1804,45 @@
         <v>1.1</v>
       </c>
       <c r="M7">
-        <v>0.09192690000000001</v>
+        <v>0.06128459999999999</v>
       </c>
       <c r="N7">
-        <v>1.0080731</v>
+        <v>1.0387154</v>
       </c>
       <c r="O7">
-        <v>0.221776082</v>
+        <v>0.228517388</v>
       </c>
       <c r="P7">
-        <v>0.7862970180000001</v>
+        <v>0.8101980120000001</v>
       </c>
       <c r="Q7">
-        <v>0.906297018</v>
+        <v>0.930198012</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.1082951616448311</v>
+        <v>0.1064345436668239</v>
       </c>
       <c r="T7">
         <v>0.966537921248502</v>
       </c>
       <c r="U7">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y7">
-        <v>11.96602952998524</v>
+        <v>17.94904429497786</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.1037671385597203</v>
+        <v>0.1015727073264922</v>
       </c>
       <c r="C8">
-        <v>72.29872468297869</v>
+        <v>72.37313165362553</v>
       </c>
       <c r="D8">
-        <v>76.29232468297867</v>
+        <v>76.36673165362552</v>
       </c>
       <c r="E8">
         <v>3.179599999999999</v>
@@ -1886,45 +1886,45 @@
         <v>1.1</v>
       </c>
       <c r="M8">
-        <v>0.1202994</v>
+        <v>0.07354151999999999</v>
       </c>
       <c r="N8">
-        <v>0.9797006000000001</v>
+        <v>1.02645848</v>
       </c>
       <c r="O8">
-        <v>0.215534132</v>
+        <v>0.2258208656</v>
       </c>
       <c r="P8">
-        <v>0.7641664680000001</v>
+        <v>0.8006376144</v>
       </c>
       <c r="Q8">
-        <v>0.884166468</v>
+        <v>0.9206376143999999</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.109071211233745</v>
+        <v>0.1072495184324385</v>
       </c>
       <c r="T8">
         <v>0.9746473330611413</v>
       </c>
       <c r="U8">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y8">
-        <v>9.143852754045326</v>
+        <v>14.95753691248155</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.1036203735568511</v>
+        <v>0.1014881581695016</v>
       </c>
       <c r="C9">
-        <v>71.66962406378865</v>
+        <v>71.68657039733885</v>
       </c>
       <c r="D9">
-        <v>76.41982406378864</v>
+        <v>76.43677039733885</v>
       </c>
       <c r="E9">
         <v>3.9362</v>
@@ -1968,45 +1968,45 @@
         <v>1.1</v>
       </c>
       <c r="M9">
-        <v>0.1403493</v>
+        <v>0.09427236000000001</v>
       </c>
       <c r="N9">
-        <v>0.9596507000000001</v>
+        <v>1.00572764</v>
       </c>
       <c r="O9">
-        <v>0.211123154</v>
+        <v>0.2212600808</v>
       </c>
       <c r="P9">
-        <v>0.748527546</v>
+        <v>0.7844675592000001</v>
       </c>
       <c r="Q9">
-        <v>0.8685275459999999</v>
+        <v>0.9044675592</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.1098639500611302</v>
+        <v>0.1080820195370985</v>
       </c>
       <c r="T9">
         <v>0.9829311408267408</v>
       </c>
       <c r="U9">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y9">
-        <v>7.83758807489599</v>
+        <v>11.6683193249856</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2017,13 +2017,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.1035422485539818</v>
+        <v>0.1014660090125111</v>
       </c>
       <c r="C10">
-        <v>70.98106766960731</v>
+        <v>70.94833953413364</v>
       </c>
       <c r="D10">
-        <v>76.48786766960731</v>
+        <v>76.45513953413364</v>
       </c>
       <c r="E10">
         <v>4.692799999999999</v>
@@ -2050,45 +2050,45 @@
         <v>1.1</v>
       </c>
       <c r="M10">
-        <v>0.16705728</v>
+        <v>0.121056</v>
       </c>
       <c r="N10">
-        <v>0.9329427200000001</v>
+        <v>0.9789440000000001</v>
       </c>
       <c r="O10">
-        <v>0.2052473984</v>
+        <v>0.21536768</v>
       </c>
       <c r="P10">
-        <v>0.7276953216000001</v>
+        <v>0.7635763200000001</v>
       </c>
       <c r="Q10">
-        <v>0.8476953215999999</v>
+        <v>0.88357632</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.1106739223412846</v>
+        <v>0.1089326184918598</v>
       </c>
       <c r="T10">
         <v>0.9913950313698531</v>
       </c>
       <c r="U10">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y10">
-        <v>6.584567879951118</v>
+        <v>9.086703674332544</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2099,13 +2099,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.1035093635511125</v>
+        <v>0.1013237398555205</v>
       </c>
       <c r="C11">
-        <v>70.25314538024095</v>
+        <v>70.30993955802089</v>
       </c>
       <c r="D11">
-        <v>76.51654538024094</v>
+        <v>76.57333955802088</v>
       </c>
       <c r="E11">
         <v>5.449399999999999</v>
@@ -2132,45 +2132,45 @@
         <v>1.1</v>
       </c>
       <c r="M11">
-        <v>0.19815354</v>
+        <v>0.136188</v>
       </c>
       <c r="N11">
-        <v>0.9018464600000001</v>
+        <v>0.9638120000000001</v>
       </c>
       <c r="O11">
-        <v>0.1984062212</v>
+        <v>0.21203864</v>
       </c>
       <c r="P11">
-        <v>0.7034402388000001</v>
+        <v>0.7517733600000001</v>
       </c>
       <c r="Q11">
-        <v>0.8234402387999999</v>
+        <v>0.8717733599999999</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.1115016962100138</v>
+        <v>0.1098019119291434</v>
       </c>
       <c r="T11">
         <v>1.000044941485342</v>
       </c>
       <c r="U11">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y11">
-        <v>5.551250812879751</v>
+        <v>8.077069932740038</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2181,13 +2181,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.1033828785482433</v>
+        <v>0.1012672706985299</v>
       </c>
       <c r="C12">
-        <v>69.6070486615031</v>
+        <v>69.60035663159447</v>
       </c>
       <c r="D12">
-        <v>76.6270486615031</v>
+        <v>76.62035663159446</v>
       </c>
       <c r="E12">
         <v>6.206</v>
@@ -2214,45 +2214,45 @@
         <v>1.1</v>
       </c>
       <c r="M12">
-        <v>0.2201706</v>
+        <v>0.1596426</v>
       </c>
       <c r="N12">
-        <v>0.8798294000000001</v>
+        <v>0.9403574000000001</v>
       </c>
       <c r="O12">
-        <v>0.193562468</v>
+        <v>0.206878628</v>
       </c>
       <c r="P12">
-        <v>0.6862669320000001</v>
+        <v>0.7334787720000001</v>
       </c>
       <c r="Q12">
-        <v>0.806266932</v>
+        <v>0.853478772</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.1123478650536036</v>
+        <v>0.1106905229983666</v>
       </c>
       <c r="T12">
         <v>1.008887071825619</v>
       </c>
       <c r="U12">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y12">
-        <v>4.996125731591775</v>
+        <v>6.890391411816145</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2263,13 +2263,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.103256393545374</v>
+        <v>0.1012622815415394</v>
       </c>
       <c r="C13">
-        <v>68.96127157652288</v>
+        <v>68.8479134552563</v>
       </c>
       <c r="D13">
-        <v>76.73787157652286</v>
+        <v>76.62451345525629</v>
       </c>
       <c r="E13">
         <v>6.962599999999999</v>
@@ -2296,37 +2296,37 @@
         <v>1.1</v>
       </c>
       <c r="M13">
-        <v>0.24218766</v>
+        <v>0.18809076</v>
       </c>
       <c r="N13">
-        <v>0.8578123400000001</v>
+        <v>0.9119092400000002</v>
       </c>
       <c r="O13">
-        <v>0.1887187148</v>
+        <v>0.2006200328</v>
       </c>
       <c r="P13">
-        <v>0.6690936252</v>
+        <v>0.7112892072000001</v>
       </c>
       <c r="Q13">
-        <v>0.7890936251999999</v>
+        <v>0.8312892072</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.1132130489273865</v>
+        <v>0.1115991028556622</v>
       </c>
       <c r="T13">
         <v>1.017927901724104</v>
       </c>
       <c r="U13">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         </is>
       </c>
       <c r="Y13">
-        <v>4.54193248326525</v>
+        <v>5.848240498363664</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.1074448685425047</v>
+        <v>0.1011402923845488</v>
       </c>
       <c r="C14">
-        <v>64.69749587161994</v>
+        <v>68.19309187471167</v>
       </c>
       <c r="D14">
-        <v>73.23069587161993</v>
+        <v>76.72629187471166</v>
       </c>
       <c r="E14">
         <v>7.719199999999998</v>
@@ -2378,45 +2378,45 @@
         <v>1.1</v>
       </c>
       <c r="M14">
-        <v>0.6827558399999999</v>
+        <v>0.2051899199999999</v>
       </c>
       <c r="N14">
-        <v>0.4172441600000002</v>
+        <v>0.8948100800000002</v>
       </c>
       <c r="O14">
-        <v>0.09179371520000004</v>
+        <v>0.1968582176000001</v>
       </c>
       <c r="P14">
-        <v>0.3254504448000002</v>
+        <v>0.6979518624000001</v>
       </c>
       <c r="Q14">
-        <v>0.4454504448000001</v>
+        <v>0.8179518624</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.1140978960710281</v>
+        <v>0.1125283322551691</v>
       </c>
       <c r="T14">
         <v>1.027174205029374</v>
       </c>
       <c r="U14">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y14">
-        <v>1.611117672753997</v>
+        <v>5.360887123500026</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2427,13 +2427,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.1119497655107216</v>
+        <v>0.1010183032275583</v>
       </c>
       <c r="C15">
-        <v>60.50982416738696</v>
+        <v>67.53854103322681</v>
       </c>
       <c r="D15">
-        <v>69.79962416738695</v>
+        <v>76.82834103322681</v>
       </c>
       <c r="E15">
         <v>8.475800000000001</v>
@@ -2460,45 +2460,45 @@
         <v>1.1</v>
       </c>
       <c r="M15">
-        <v>1.1360349</v>
+        <v>0.22228908</v>
       </c>
       <c r="N15">
-        <v>-0.03603489999999998</v>
+        <v>0.8777109200000001</v>
       </c>
       <c r="O15">
-        <v>-0.007927677999999995</v>
+        <v>0.1930964024</v>
       </c>
       <c r="P15">
-        <v>-0.02810722199999999</v>
+        <v>0.6846145176</v>
       </c>
       <c r="Q15">
-        <v>0.0918927779999999</v>
+        <v>0.8046145175999999</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.1150957301196399</v>
+        <v>0.113478923250067</v>
       </c>
       <c r="T15">
-        <v>1.037601176883312</v>
+        <v>1.036633067031316</v>
       </c>
       <c r="U15">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V15">
-        <v>0.2130216245997372</v>
+        <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.09089600235873035</v>
+        <v>0.017628</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y15">
-        <v>0.9682801118169874</v>
+        <v>4.948511190923099</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2509,13 +2509,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.1129467655107216</v>
+        <v>0.1008963140705677</v>
       </c>
       <c r="C16">
-        <v>59.03688302181169</v>
+        <v>66.88426201252304</v>
       </c>
       <c r="D16">
-        <v>69.08328302181168</v>
+        <v>76.93066201252303</v>
       </c>
       <c r="E16">
         <v>9.232400000000002</v>
@@ -2542,45 +2542,45 @@
         <v>1.1</v>
       </c>
       <c r="M16">
-        <v>1.2234222</v>
+        <v>0.23938824</v>
       </c>
       <c r="N16">
-        <v>-0.1234222</v>
+        <v>0.8606117600000001</v>
       </c>
       <c r="O16">
-        <v>-0.02715288400000001</v>
+        <v>0.1893345872</v>
       </c>
       <c r="P16">
-        <v>-0.09626931600000002</v>
+        <v>0.6712771728</v>
       </c>
       <c r="Q16">
-        <v>0.02373068399999986</v>
+        <v>0.7912771727999999</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.1162503316326589</v>
+        <v>0.114451621012288</v>
       </c>
       <c r="T16">
-        <v>1.049666306847072</v>
+        <v>1.046311902568187</v>
       </c>
       <c r="U16">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V16">
-        <v>0.1978057942711846</v>
+        <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.09265343076167817</v>
+        <v>0.017628</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y16">
-        <v>0.8991172466872025</v>
+        <v>4.595046105857163</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2591,13 +2591,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.1139437655107216</v>
+        <v>0.1116227049559097</v>
       </c>
       <c r="C17">
-        <v>57.57849587502422</v>
+        <v>58.06309460131138</v>
       </c>
       <c r="D17">
-        <v>68.38149587502421</v>
+        <v>68.86609460131137</v>
       </c>
       <c r="E17">
         <v>9.988999999999999</v>
@@ -2624,37 +2624,37 @@
         <v>1.1</v>
       </c>
       <c r="M17">
-        <v>1.3108095</v>
+        <v>1.237041</v>
       </c>
       <c r="N17">
-        <v>-0.2108094999999996</v>
+        <v>-0.1370409999999997</v>
       </c>
       <c r="O17">
-        <v>-0.04637808999999992</v>
+        <v>-0.03014901999999994</v>
       </c>
       <c r="P17">
-        <v>-0.1644314099999997</v>
+        <v>-0.1068919799999998</v>
       </c>
       <c r="Q17">
-        <v>-0.04443140999999984</v>
+        <v>0.01310802000000008</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.1174321002401019</v>
+        <v>0.1158484995873821</v>
       </c>
       <c r="T17">
-        <v>1.062015322221743</v>
+        <v>1.060211552098008</v>
       </c>
       <c r="U17">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V17">
-        <v>0.1846187413197723</v>
+        <v>0.195628115802144</v>
       </c>
       <c r="W17">
-        <v>0.09417653537756629</v>
+        <v>0.0876765353775663</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="Y17">
-        <v>0.8391760969080559</v>
+        <v>0.8892187081915638</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2673,13 +2673,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.1204560499908368</v>
+        <v>0.1126197049559097</v>
       </c>
       <c r="C18">
-        <v>52.5668169345046</v>
+        <v>56.64196021896093</v>
       </c>
       <c r="D18">
-        <v>64.12641693450459</v>
+        <v>68.20156021896092</v>
       </c>
       <c r="E18">
         <v>10.7456</v>
@@ -2706,45 +2706,45 @@
         <v>1.1</v>
       </c>
       <c r="M18">
-        <v>1.77589152</v>
+        <v>1.3195104</v>
       </c>
       <c r="N18">
-        <v>-0.6758915199999997</v>
+        <v>-0.2195103999999999</v>
       </c>
       <c r="O18">
-        <v>-0.1486961344</v>
+        <v>-0.04829228799999997</v>
       </c>
       <c r="P18">
-        <v>-0.5271953855999998</v>
+        <v>-0.1712181119999999</v>
       </c>
       <c r="Q18">
-        <v>-0.4071953855999999</v>
+        <v>-0.05121811200000004</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.1192649639097641</v>
+        <v>0.1171169341062795</v>
       </c>
       <c r="T18">
-        <v>1.081168023938289</v>
+        <v>1.072833118194413</v>
       </c>
       <c r="U18">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V18">
-        <v>0.1362695847548166</v>
+        <v>0.18340135856451</v>
       </c>
       <c r="W18">
-        <v>0.1267092519164684</v>
+        <v>0.08900925191646841</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y18">
-        <v>0.6194072034309844</v>
+        <v>0.8336425389295909</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2755,13 +2755,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.1217650499908368</v>
+        <v>0.1195300034845675</v>
       </c>
       <c r="C19">
-        <v>51.0180549926707</v>
+        <v>51.6098170244147</v>
       </c>
       <c r="D19">
-        <v>63.3342549926707</v>
+        <v>63.9260170244147</v>
       </c>
       <c r="E19">
         <v>11.5022</v>
@@ -2788,37 +2788,37 @@
         <v>1.1</v>
       </c>
       <c r="M19">
-        <v>1.88688474</v>
+        <v>1.80328044</v>
       </c>
       <c r="N19">
-        <v>-0.7868847399999999</v>
+        <v>-0.7032804399999997</v>
       </c>
       <c r="O19">
-        <v>-0.1731146428</v>
+        <v>-0.1547216967999999</v>
       </c>
       <c r="P19">
-        <v>-0.6137700971999999</v>
+        <v>-0.5485587431999998</v>
       </c>
       <c r="Q19">
-        <v>-0.4937700972</v>
+        <v>-0.4285587431999999</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.1205115297400022</v>
+        <v>0.1191500279252199</v>
       </c>
       <c r="T19">
-        <v>1.09419414470863</v>
+        <v>1.093063431729443</v>
       </c>
       <c r="U19">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V19">
-        <v>0.1282537268280627</v>
+        <v>0.1341998696553267</v>
       </c>
       <c r="W19">
-        <v>0.1278851782743232</v>
+        <v>0.1213851782743232</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         </is>
       </c>
       <c r="Y19">
-        <v>0.582971485582103</v>
+        <v>0.6099994075242119</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2837,13 +2837,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.1230740499908368</v>
+        <v>0.1208390034845675</v>
       </c>
       <c r="C20">
-        <v>49.48862559178122</v>
+        <v>50.10299375120304</v>
       </c>
       <c r="D20">
-        <v>62.56142559178122</v>
+        <v>63.17579375120304</v>
       </c>
       <c r="E20">
         <v>12.2588</v>
@@ -2870,37 +2870,37 @@
         <v>1.1</v>
       </c>
       <c r="M20">
-        <v>1.99787796</v>
+        <v>1.90935576</v>
       </c>
       <c r="N20">
-        <v>-0.8978779599999998</v>
+        <v>-0.8093557599999996</v>
       </c>
       <c r="O20">
-        <v>-0.1975331512</v>
+        <v>-0.1780582671999999</v>
       </c>
       <c r="P20">
-        <v>-0.7003448087999998</v>
+        <v>-0.6312974927999997</v>
       </c>
       <c r="Q20">
-        <v>-0.5803448087999999</v>
+        <v>-0.5112974927999998</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.1217884996148803</v>
+        <v>0.1204896624121128</v>
       </c>
       <c r="T20">
-        <v>1.107537975741661</v>
+        <v>1.106393473579802</v>
       </c>
       <c r="U20">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V20">
-        <v>0.1211285197820592</v>
+        <v>0.1267443213411418</v>
       </c>
       <c r="W20">
-        <v>0.1289304461479719</v>
+        <v>0.1224304461479719</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="Y20">
-        <v>0.5505841808275418</v>
+        <v>0.5761105515506446</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.1243830499908368</v>
+        <v>0.1221480034845675</v>
       </c>
       <c r="C21">
-        <v>47.97782955375732</v>
+        <v>48.61357516809328</v>
       </c>
       <c r="D21">
-        <v>61.80722955375732</v>
+        <v>62.44297516809328</v>
       </c>
       <c r="E21">
         <v>13.0154</v>
@@ -2952,37 +2952,37 @@
         <v>1.1</v>
       </c>
       <c r="M21">
-        <v>2.10887118</v>
+        <v>2.01543108</v>
       </c>
       <c r="N21">
-        <v>-1.00887118</v>
+        <v>-0.9154310799999998</v>
       </c>
       <c r="O21">
-        <v>-0.2219516596</v>
+        <v>-0.2013948376</v>
       </c>
       <c r="P21">
-        <v>-0.7869195203999999</v>
+        <v>-0.7140362423999999</v>
       </c>
       <c r="Q21">
-        <v>-0.6669195204</v>
+        <v>-0.5940362424</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.1230969996101257</v>
+        <v>0.1218623742937439</v>
       </c>
       <c r="T21">
-        <v>1.121211284084151</v>
+        <v>1.120052652265972</v>
       </c>
       <c r="U21">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V21">
-        <v>0.1147533345303719</v>
+        <v>0.1200735675863449</v>
       </c>
       <c r="W21">
-        <v>0.1298656858243945</v>
+        <v>0.1233656858243944</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="Y21">
-        <v>0.5216060660471448</v>
+        <v>0.5457889435742949</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.1348350910625189</v>
+        <v>0.1234570034845675</v>
       </c>
       <c r="C22">
-        <v>41.79416014039029</v>
+        <v>47.14096255388619</v>
       </c>
       <c r="D22">
-        <v>56.38016014039029</v>
+        <v>61.72696255388619</v>
       </c>
       <c r="E22">
         <v>13.772</v>
@@ -3034,45 +3034,45 @@
         <v>1.1</v>
       </c>
       <c r="M22">
-        <v>2.8781064</v>
+        <v>2.1215064</v>
       </c>
       <c r="N22">
-        <v>-1.7781064</v>
+        <v>-1.0215064</v>
       </c>
       <c r="O22">
-        <v>-0.391183408</v>
+        <v>-0.224731408</v>
       </c>
       <c r="P22">
-        <v>-1.386922992</v>
+        <v>-0.7967749919999998</v>
       </c>
       <c r="Q22">
-        <v>-1.266922992</v>
+        <v>-0.6767749919999999</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.1249920134448549</v>
+        <v>0.1232694039724156</v>
       </c>
       <c r="T22">
-        <v>1.141013430488191</v>
+        <v>1.134053310419296</v>
       </c>
       <c r="U22">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V22">
-        <v>0.08408306239130006</v>
+        <v>0.1140698892070276</v>
       </c>
       <c r="W22">
-        <v>0.1742074015331747</v>
+        <v>0.1242074015331747</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y22">
-        <v>0.382195738142273</v>
+        <v>0.5184994963955801</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3083,13 +3083,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.1365790910625188</v>
+        <v>0.1344050633671852</v>
       </c>
       <c r="C23">
-        <v>40.22345400314554</v>
+        <v>40.98257893119944</v>
       </c>
       <c r="D23">
-        <v>55.56605400314554</v>
+        <v>56.32517893119944</v>
       </c>
       <c r="E23">
         <v>14.5286</v>
@@ -3116,37 +3116,37 @@
         <v>1.1</v>
       </c>
       <c r="M23">
-        <v>3.02201172</v>
+        <v>2.91873582</v>
       </c>
       <c r="N23">
-        <v>-1.92201172</v>
+        <v>-1.81873582</v>
       </c>
       <c r="O23">
-        <v>-0.4228425783999999</v>
+        <v>-0.4001218803999999</v>
       </c>
       <c r="P23">
-        <v>-1.4991691416</v>
+        <v>-1.4186139396</v>
       </c>
       <c r="Q23">
-        <v>-1.3791691416</v>
+        <v>-1.2986139396</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.1263741908302328</v>
+        <v>0.1253501051399371</v>
       </c>
       <c r="T23">
-        <v>1.155456638469054</v>
+        <v>1.154757341192258</v>
       </c>
       <c r="U23">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V23">
-        <v>0.08007910703933341</v>
+        <v>0.08291260837714325</v>
       </c>
       <c r="W23">
-        <v>0.1749689538411188</v>
+        <v>0.1684689538411188</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         </is>
       </c>
       <c r="Y23">
-        <v>0.3639959410878791</v>
+        <v>0.3768754926233784</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3165,13 +3165,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.1383230910625189</v>
+        <v>0.1361490633671852</v>
       </c>
       <c r="C24">
-        <v>38.67592392342661</v>
+        <v>39.45158525852669</v>
       </c>
       <c r="D24">
-        <v>54.77512392342661</v>
+        <v>55.55078525852669</v>
       </c>
       <c r="E24">
         <v>15.2852</v>
@@ -3198,37 +3198,37 @@
         <v>1.1</v>
       </c>
       <c r="M24">
-        <v>3.16591704</v>
+        <v>3.05772324</v>
       </c>
       <c r="N24">
-        <v>-2.06591704</v>
+        <v>-1.95772324</v>
       </c>
       <c r="O24">
-        <v>-0.4545017488</v>
+        <v>-0.4306991128</v>
       </c>
       <c r="P24">
-        <v>-1.6114152912</v>
+        <v>-1.5270241272</v>
       </c>
       <c r="Q24">
-        <v>-1.4914152912</v>
+        <v>-1.4070241272</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.1277918086613896</v>
+        <v>0.1268379270007055</v>
       </c>
       <c r="T24">
-        <v>1.170270185116093</v>
+        <v>1.169561922489594</v>
       </c>
       <c r="U24">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V24">
-        <v>0.07643914762845461</v>
+        <v>0.07914385345090945</v>
       </c>
       <c r="W24">
-        <v>0.1756612741210679</v>
+        <v>0.1691612741210679</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="Y24">
-        <v>0.34745067103843</v>
+        <v>0.3597447884132248</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.1400670910625189</v>
+        <v>0.1378930633671852</v>
       </c>
       <c r="C25">
-        <v>37.15059412291654</v>
+        <v>37.94159649124742</v>
       </c>
       <c r="D25">
-        <v>54.00639412291655</v>
+        <v>54.79739649124742</v>
       </c>
       <c r="E25">
         <v>16.0418</v>
@@ -3280,37 +3280,37 @@
         <v>1.1</v>
       </c>
       <c r="M25">
-        <v>3.309822360000001</v>
+        <v>3.19671066</v>
       </c>
       <c r="N25">
-        <v>-2.20982236</v>
+        <v>-2.09671066</v>
       </c>
       <c r="O25">
-        <v>-0.4861609192000001</v>
+        <v>-0.4612763452</v>
       </c>
       <c r="P25">
-        <v>-1.7236614408</v>
+        <v>-1.6354343148</v>
       </c>
       <c r="Q25">
-        <v>-1.603661440800001</v>
+        <v>-1.5154343148</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.1292462477349141</v>
+        <v>0.1283643935851302</v>
       </c>
       <c r="T25">
-        <v>1.18546849920851</v>
+        <v>1.184751038366083</v>
       </c>
       <c r="U25">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V25">
-        <v>0.07311570642721743</v>
+        <v>0.07570281634434815</v>
       </c>
       <c r="W25">
-        <v>0.1762933926375433</v>
+        <v>0.1697933926375433</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="Y25">
-        <v>0.3323441201237156</v>
+        <v>0.344103710656128</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3329,13 +3329,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.1418110910625189</v>
+        <v>0.1396370633671852</v>
       </c>
       <c r="C26">
-        <v>35.64654284258729</v>
+        <v>36.4517694489018</v>
       </c>
       <c r="D26">
-        <v>53.2589428425873</v>
+        <v>54.0641694489018</v>
       </c>
       <c r="E26">
         <v>16.7984</v>
@@ -3362,37 +3362,37 @@
         <v>1.1</v>
       </c>
       <c r="M26">
-        <v>3.45372768</v>
+        <v>3.335698079999999</v>
       </c>
       <c r="N26">
-        <v>-2.35372768</v>
+        <v>-2.235698079999999</v>
       </c>
       <c r="O26">
-        <v>-0.5178200895999999</v>
+        <v>-0.4918535775999998</v>
       </c>
       <c r="P26">
-        <v>-1.8359075904</v>
+        <v>-1.7438445024</v>
       </c>
       <c r="Q26">
-        <v>-1.7159075904</v>
+        <v>-1.6238445024</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.1307389615208999</v>
+        <v>0.1299310303428293</v>
       </c>
       <c r="T26">
-        <v>1.201066768934938</v>
+        <v>1.200339867818268</v>
       </c>
       <c r="U26">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V26">
-        <v>0.07006921865941673</v>
+        <v>0.07254853233000035</v>
       </c>
       <c r="W26">
-        <v>0.1768728346109789</v>
+        <v>0.1703728346109789</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="Y26">
-        <v>0.3184964484518942</v>
+        <v>0.3297660560454561</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3411,13 +3411,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.1435550910625188</v>
+        <v>0.1413810633671852</v>
       </c>
       <c r="C27">
-        <v>34.16289865558093</v>
+        <v>34.98130548449106</v>
       </c>
       <c r="D27">
-        <v>52.53189865558093</v>
+        <v>53.35030548449106</v>
       </c>
       <c r="E27">
         <v>17.555</v>
@@ -3444,37 +3444,37 @@
         <v>1.1</v>
       </c>
       <c r="M27">
-        <v>3.597633</v>
+        <v>3.4746855</v>
       </c>
       <c r="N27">
-        <v>-2.497633</v>
+        <v>-2.3746855</v>
       </c>
       <c r="O27">
-        <v>-0.54947926</v>
+        <v>-0.52243081</v>
       </c>
       <c r="P27">
-        <v>-1.94815374</v>
+        <v>-1.85225469</v>
       </c>
       <c r="Q27">
-        <v>-1.82815374</v>
+        <v>-1.73225469</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.1322714810078452</v>
+        <v>0.1315394440807337</v>
       </c>
       <c r="T27">
-        <v>1.217080992520737</v>
+        <v>1.216344399389178</v>
       </c>
       <c r="U27">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V27">
-        <v>0.06726644991304005</v>
+        <v>0.06964659103680032</v>
       </c>
       <c r="W27">
-        <v>0.1774059212265398</v>
+        <v>0.1709059212265398</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="Y27">
-        <v>0.3057565905138184</v>
+        <v>0.3165754138036377</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3493,13 +3493,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.1452990910625189</v>
+        <v>0.1431250633671853</v>
       </c>
       <c r="C28">
-        <v>32.69883707802357</v>
+        <v>33.52944758269081</v>
       </c>
       <c r="D28">
-        <v>51.82443707802357</v>
+        <v>52.65504758269081</v>
       </c>
       <c r="E28">
         <v>18.3116</v>
@@ -3526,37 +3526,37 @@
         <v>1.1</v>
       </c>
       <c r="M28">
-        <v>3.741538320000001</v>
+        <v>3.61367292</v>
       </c>
       <c r="N28">
-        <v>-2.64153832</v>
+        <v>-2.51367292</v>
       </c>
       <c r="O28">
-        <v>-0.5811384304000001</v>
+        <v>-0.5530080424000001</v>
       </c>
       <c r="P28">
-        <v>-2.0603998896</v>
+        <v>-1.9606648776</v>
       </c>
       <c r="Q28">
-        <v>-1.9403998896</v>
+        <v>-1.8406648776</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.1338454199403837</v>
+        <v>0.1331913284602031</v>
       </c>
       <c r="T28">
-        <v>1.233528032960207</v>
+        <v>1.23278148586741</v>
       </c>
       <c r="U28">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V28">
-        <v>0.06467927876253851</v>
+        <v>0.06696787599692337</v>
       </c>
       <c r="W28">
-        <v>0.1778980011793652</v>
+        <v>0.1713980011793652</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="Y28">
-        <v>0.2939967216479022</v>
+        <v>0.3043994363496517</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3575,13 +3575,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.1470430910625188</v>
+        <v>0.1448690633671852</v>
       </c>
       <c r="C29">
-        <v>31.25357745005872</v>
+        <v>32.09547768204104</v>
       </c>
       <c r="D29">
-        <v>51.13577745005872</v>
+        <v>51.97767768204103</v>
       </c>
       <c r="E29">
         <v>19.0682</v>
@@ -3608,37 +3608,37 @@
         <v>1.1</v>
       </c>
       <c r="M29">
-        <v>3.88544364</v>
+        <v>3.75266034</v>
       </c>
       <c r="N29">
-        <v>-2.78544364</v>
+        <v>-2.65266034</v>
       </c>
       <c r="O29">
-        <v>-0.6127976008</v>
+        <v>-0.5835852748</v>
       </c>
       <c r="P29">
-        <v>-2.1726460392</v>
+        <v>-2.0690750652</v>
       </c>
       <c r="Q29">
-        <v>-2.0526460392</v>
+        <v>-1.9490750652</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.1354624804875122</v>
+        <v>0.1348884699459593</v>
       </c>
       <c r="T29">
-        <v>1.250425677247333</v>
+        <v>1.249668903482033</v>
       </c>
       <c r="U29">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V29">
-        <v>0.06228374991948153</v>
+        <v>0.06448758429333361</v>
       </c>
       <c r="W29">
-        <v>0.1783536307653146</v>
+        <v>0.1718536307653146</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="Y29">
-        <v>0.2831079541794614</v>
+        <v>0.2931253831515165</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3657,13 +3657,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.1487870910625188</v>
+        <v>0.1466130633671852</v>
       </c>
       <c r="C30">
-        <v>29.82638006229438</v>
+        <v>30.67871420119962</v>
       </c>
       <c r="D30">
-        <v>50.46518006229439</v>
+        <v>51.31751420119962</v>
       </c>
       <c r="E30">
         <v>19.8248</v>
@@ -3690,37 +3690,37 @@
         <v>1.1</v>
       </c>
       <c r="M30">
-        <v>4.029348960000001</v>
+        <v>3.891647760000001</v>
       </c>
       <c r="N30">
-        <v>-2.929348960000001</v>
+        <v>-2.79164776</v>
       </c>
       <c r="O30">
-        <v>-0.6444567712000002</v>
+        <v>-0.6141625072000001</v>
       </c>
       <c r="P30">
-        <v>-2.284892188800001</v>
+        <v>-2.1774852528</v>
       </c>
       <c r="Q30">
-        <v>-2.164892188800001</v>
+        <v>-2.0574852528</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.1371244593831721</v>
+        <v>0.1366327542507643</v>
       </c>
       <c r="T30">
-        <v>1.267792700542435</v>
+        <v>1.267025416030394</v>
       </c>
       <c r="U30">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V30">
-        <v>0.06005933027950003</v>
+        <v>0.06218445628285741</v>
       </c>
       <c r="W30">
-        <v>0.1787767153808391</v>
+        <v>0.1722767153808391</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="Y30">
-        <v>0.2729969558159092</v>
+        <v>0.2826566194675337</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.1505310910625188</v>
+        <v>0.1483570633671852</v>
       </c>
       <c r="C31">
-        <v>28.41654350542719</v>
+        <v>29.2785097513446</v>
       </c>
       <c r="D31">
-        <v>49.81194350542719</v>
+        <v>50.6739097513446</v>
       </c>
       <c r="E31">
         <v>20.5814</v>
@@ -3772,37 +3772,37 @@
         <v>1.1</v>
       </c>
       <c r="M31">
-        <v>4.17325428</v>
+        <v>4.03063518</v>
       </c>
       <c r="N31">
-        <v>-3.07325428</v>
+        <v>-2.93063518</v>
       </c>
       <c r="O31">
-        <v>-0.6761159416</v>
+        <v>-0.6447397396</v>
       </c>
       <c r="P31">
-        <v>-2.3971383384</v>
+        <v>-2.2858954404</v>
       </c>
       <c r="Q31">
-        <v>-2.2771383384</v>
+        <v>-2.1658954404</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.138833254585752</v>
+        <v>0.1384261733247187</v>
       </c>
       <c r="T31">
-        <v>1.285648935761342</v>
+        <v>1.284870844425188</v>
       </c>
       <c r="U31">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V31">
-        <v>0.05798831889055177</v>
+        <v>0.06004016468689682</v>
       </c>
       <c r="W31">
-        <v>0.1791706217470171</v>
+        <v>0.1726706217470171</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="Y31">
-        <v>0.2635832676843262</v>
+        <v>0.2729098394858946</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3821,13 +3821,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.1522750910625189</v>
+        <v>0.1501010633671852</v>
       </c>
       <c r="C32">
-        <v>27.0234022230794</v>
+        <v>27.89424901858525</v>
       </c>
       <c r="D32">
-        <v>49.1754022230794</v>
+        <v>50.04624901858525</v>
       </c>
       <c r="E32">
         <v>21.338</v>
@@ -3854,37 +3854,37 @@
         <v>1.1</v>
       </c>
       <c r="M32">
-        <v>4.317159599999999</v>
+        <v>4.169622599999999</v>
       </c>
       <c r="N32">
-        <v>-3.217159599999999</v>
+        <v>-3.069622599999999</v>
       </c>
       <c r="O32">
-        <v>-0.7077751119999998</v>
+        <v>-0.6753169719999998</v>
       </c>
       <c r="P32">
-        <v>-2.509384487999999</v>
+        <v>-2.394305628</v>
       </c>
       <c r="Q32">
-        <v>-2.389384487999999</v>
+        <v>-2.274305628</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.1405908725084056</v>
+        <v>0.1402708329436433</v>
       </c>
       <c r="T32">
-        <v>1.304015349129361</v>
+        <v>1.303226142202691</v>
       </c>
       <c r="U32">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V32">
-        <v>0.05605537492753338</v>
+        <v>0.05803882586400027</v>
       </c>
       <c r="W32">
-        <v>0.1795382676887831</v>
+        <v>0.1730382676887832</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="Y32">
-        <v>0.2547971587615154</v>
+        <v>0.2638128448363649</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.1540190910625188</v>
+        <v>0.1518450633671852</v>
       </c>
       <c r="C33">
-        <v>25.64632424990088</v>
+        <v>26.52534680182181</v>
       </c>
       <c r="D33">
-        <v>48.55492424990088</v>
+        <v>49.43394680182181</v>
       </c>
       <c r="E33">
         <v>22.0946</v>
@@ -3936,37 +3936,37 @@
         <v>1.1</v>
       </c>
       <c r="M33">
-        <v>4.46106492</v>
+        <v>4.30861002</v>
       </c>
       <c r="N33">
-        <v>-3.36106492</v>
+        <v>-3.20861002</v>
       </c>
       <c r="O33">
-        <v>-0.7394342824</v>
+        <v>-0.7058942043999999</v>
       </c>
       <c r="P33">
-        <v>-2.6216306376</v>
+        <v>-2.5027158156</v>
       </c>
       <c r="Q33">
-        <v>-2.5016306376</v>
+        <v>-2.3827158156</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.1423994358780926</v>
+        <v>0.1421689609573192</v>
       </c>
       <c r="T33">
-        <v>1.322914122305149</v>
+        <v>1.322113477596933</v>
       </c>
       <c r="U33">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V33">
-        <v>0.0542471370266452</v>
+        <v>0.05616660567483897</v>
       </c>
       <c r="W33">
-        <v>0.1798821945375321</v>
+        <v>0.1733821945375321</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="Y33">
-        <v>0.24657789557566</v>
+        <v>0.2553027530674499</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.1557630910625188</v>
+        <v>0.1535890633671852</v>
       </c>
       <c r="C34">
-        <v>24.28470911877604</v>
+        <v>25.17124619290189</v>
       </c>
       <c r="D34">
-        <v>47.94990911877604</v>
+        <v>48.83644619290189</v>
       </c>
       <c r="E34">
         <v>22.8512</v>
@@ -4018,37 +4018,37 @@
         <v>1.1</v>
       </c>
       <c r="M34">
-        <v>4.60497024</v>
+        <v>4.44759744</v>
       </c>
       <c r="N34">
-        <v>-3.50497024</v>
+        <v>-3.34759744</v>
       </c>
       <c r="O34">
-        <v>-0.7710934528</v>
+        <v>-0.7364714367999999</v>
       </c>
       <c r="P34">
-        <v>-2.7338767872</v>
+        <v>-2.6111260032</v>
       </c>
       <c r="Q34">
-        <v>-2.6138767872</v>
+        <v>-2.4911260032</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.1442611922880646</v>
+        <v>0.1441229162655151</v>
       </c>
       <c r="T34">
-        <v>1.342368741750813</v>
+        <v>1.341556322855711</v>
       </c>
       <c r="U34">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V34">
-        <v>0.05255191399456254</v>
+        <v>0.05441139924750024</v>
       </c>
       <c r="W34">
-        <v>0.1802046259582342</v>
+        <v>0.1737046259582342</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="Y34">
-        <v>0.2388723363389206</v>
+        <v>0.247324542034092</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4067,13 +4067,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.1575070910625189</v>
+        <v>0.1553330633671852</v>
       </c>
       <c r="C35">
-        <v>22.93798592256808</v>
+        <v>23.83141688717769</v>
       </c>
       <c r="D35">
-        <v>47.35978592256808</v>
+        <v>48.25321688717769</v>
       </c>
       <c r="E35">
         <v>23.6078</v>
@@ -4100,37 +4100,37 @@
         <v>1.1</v>
       </c>
       <c r="M35">
-        <v>4.74887556</v>
+        <v>4.58658486</v>
       </c>
       <c r="N35">
-        <v>-3.64887556</v>
+        <v>-3.48658486</v>
       </c>
       <c r="O35">
-        <v>-0.8027526232</v>
+        <v>-0.7670486692</v>
       </c>
       <c r="P35">
-        <v>-2.8461229368</v>
+        <v>-2.7195361908</v>
       </c>
       <c r="Q35">
-        <v>-2.7261229368</v>
+        <v>-2.5995361908</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.1461785235162447</v>
+        <v>0.1461351985978362</v>
       </c>
       <c r="T35">
-        <v>1.362404096105303</v>
+        <v>1.36157955155505</v>
       </c>
       <c r="U35">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V35">
-        <v>0.05095943175230307</v>
+        <v>0.05276256896727297</v>
       </c>
       <c r="W35">
-        <v>0.1805075160807119</v>
+        <v>0.174007516080712</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="Y35">
-        <v>0.2316337806922867</v>
+        <v>0.2398298589421498</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.1592510910625189</v>
+        <v>0.1570770633671852</v>
       </c>
       <c r="C36">
-        <v>21.60561151724856</v>
+        <v>22.50535361369159</v>
       </c>
       <c r="D36">
-        <v>46.78401151724856</v>
+        <v>47.68375361369159</v>
       </c>
       <c r="E36">
         <v>24.3644</v>
@@ -4182,37 +4182,37 @@
         <v>1.1</v>
       </c>
       <c r="M36">
-        <v>4.89278088</v>
+        <v>4.72557228</v>
       </c>
       <c r="N36">
-        <v>-3.79278088</v>
+        <v>-3.62557228</v>
       </c>
       <c r="O36">
-        <v>-0.8344117936000001</v>
+        <v>-0.7976259015999999</v>
       </c>
       <c r="P36">
-        <v>-2.9583690864</v>
+        <v>-2.8279463784</v>
       </c>
       <c r="Q36">
-        <v>-2.8383690864</v>
+        <v>-2.7079463784</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.1481539556907332</v>
+        <v>0.148208459182652</v>
       </c>
       <c r="T36">
-        <v>1.383046582409929</v>
+        <v>1.38220954476043</v>
       </c>
       <c r="U36">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V36">
-        <v>0.04946062493605886</v>
+        <v>0.05121072870352965</v>
       </c>
       <c r="W36">
-        <v>0.1807925891371616</v>
+        <v>0.1742925891371616</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         </is>
       </c>
       <c r="Y36">
-        <v>0.2248210224366312</v>
+        <v>0.2327760395614984</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4231,13 +4231,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.1609950910625189</v>
+        <v>0.1588210633671852</v>
       </c>
       <c r="C37">
-        <v>20.28706885452485</v>
+        <v>21.19257467522286</v>
       </c>
       <c r="D37">
-        <v>46.22206885452486</v>
+        <v>47.12757467522286</v>
       </c>
       <c r="E37">
         <v>25.121</v>
@@ -4264,37 +4264,37 @@
         <v>1.1</v>
       </c>
       <c r="M37">
-        <v>5.0366862</v>
+        <v>4.8645597</v>
       </c>
       <c r="N37">
-        <v>-3.9366862</v>
+        <v>-3.7645597</v>
       </c>
       <c r="O37">
-        <v>-0.8660709640000001</v>
+        <v>-0.828203134</v>
       </c>
       <c r="P37">
-        <v>-3.070615236</v>
+        <v>-2.936356566</v>
       </c>
       <c r="Q37">
-        <v>-2.950615236</v>
+        <v>-2.816356566</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.1501901703936675</v>
+        <v>0.1503455124008466</v>
       </c>
       <c r="T37">
-        <v>1.404324222139312</v>
+        <v>1.403474306987513</v>
       </c>
       <c r="U37">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V37">
-        <v>0.04804746422360004</v>
+        <v>0.04974756502628594</v>
       </c>
       <c r="W37">
-        <v>0.1810613723046713</v>
+        <v>0.1745613723046713</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="Y37">
-        <v>0.2183975646527274</v>
+        <v>0.2261252955740269</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4313,13 +4313,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.1627390910625189</v>
+        <v>0.1605650633671852</v>
       </c>
       <c r="C38">
-        <v>18.98186543320662</v>
+        <v>19.89262058932878</v>
       </c>
       <c r="D38">
-        <v>45.67346543320662</v>
+        <v>46.58422058932877</v>
       </c>
       <c r="E38">
         <v>25.8776</v>
@@ -4346,37 +4346,37 @@
         <v>1.1</v>
       </c>
       <c r="M38">
-        <v>5.180591519999999</v>
+        <v>5.003547119999999</v>
       </c>
       <c r="N38">
-        <v>-4.080591519999999</v>
+        <v>-3.903547119999999</v>
       </c>
       <c r="O38">
-        <v>-0.8977301343999997</v>
+        <v>-0.8587803663999999</v>
       </c>
       <c r="P38">
-        <v>-3.182861385599999</v>
+        <v>-3.044766753599999</v>
       </c>
       <c r="Q38">
-        <v>-3.062861385599999</v>
+        <v>-2.924766753599999</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.1522900168060686</v>
+        <v>0.1525493485321098</v>
       </c>
       <c r="T38">
-        <v>1.426266788110239</v>
+        <v>1.425403593034193</v>
       </c>
       <c r="U38">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V38">
-        <v>0.04671281243961116</v>
+        <v>0.04836568822000022</v>
       </c>
       <c r="W38">
-        <v>0.181315223073986</v>
+        <v>0.174815223073986</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="Y38">
-        <v>0.2123309656345962</v>
+        <v>0.2198440373636373</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4395,13 +4395,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.1644830910625188</v>
+        <v>0.1623090633671852</v>
       </c>
       <c r="C39">
-        <v>17.68953185956159</v>
+        <v>18.60505282232254</v>
       </c>
       <c r="D39">
-        <v>45.13773185956159</v>
+        <v>46.05325282232254</v>
       </c>
       <c r="E39">
         <v>26.6342</v>
@@ -4428,37 +4428,37 @@
         <v>1.1</v>
       </c>
       <c r="M39">
-        <v>5.32449684</v>
+        <v>5.14253454</v>
       </c>
       <c r="N39">
-        <v>-4.22449684</v>
+        <v>-4.04253454</v>
       </c>
       <c r="O39">
-        <v>-0.9293893048000001</v>
+        <v>-0.8893575988</v>
       </c>
       <c r="P39">
-        <v>-3.295107535200001</v>
+        <v>-3.1531769412</v>
       </c>
       <c r="Q39">
-        <v>-3.1751075352</v>
+        <v>-3.0331769412</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.1544565250093395</v>
+        <v>0.1548231477151592</v>
       </c>
       <c r="T39">
-        <v>1.448905943477068</v>
+        <v>1.448029046891879</v>
       </c>
       <c r="U39">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V39">
-        <v>0.04545030399529733</v>
+        <v>0.04705850745729751</v>
       </c>
       <c r="W39">
-        <v>0.1815553521800944</v>
+        <v>0.1750553521800944</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="Y39">
-        <v>0.206592290887715</v>
+        <v>0.2139023066240795</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4477,13 +4477,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.1662270910625189</v>
+        <v>0.1640530633671852</v>
       </c>
       <c r="C40">
-        <v>16.40962050781605</v>
+        <v>17.32945260885626</v>
       </c>
       <c r="D40">
-        <v>44.61442050781605</v>
+        <v>45.53425260885626</v>
       </c>
       <c r="E40">
         <v>27.3908</v>
@@ -4510,37 +4510,37 @@
         <v>1.1</v>
       </c>
       <c r="M40">
-        <v>5.46840216</v>
+        <v>5.28152196</v>
       </c>
       <c r="N40">
-        <v>-4.36840216</v>
+        <v>-4.18152196</v>
       </c>
       <c r="O40">
-        <v>-0.9610484752000001</v>
+        <v>-0.9199348311999999</v>
       </c>
       <c r="P40">
-        <v>-3.4073536848</v>
+        <v>-3.2615871288</v>
       </c>
       <c r="Q40">
-        <v>-3.2873536848</v>
+        <v>-3.141587128799999</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.1566929205740063</v>
+        <v>0.1571702952589521</v>
       </c>
       <c r="T40">
-        <v>1.472275394178311</v>
+        <v>1.471384354099812</v>
       </c>
       <c r="U40">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V40">
-        <v>0.04425424336384214</v>
+        <v>0.04582012568210547</v>
       </c>
       <c r="W40">
-        <v>0.1817828429121972</v>
+        <v>0.1752828429121972</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="Y40">
-        <v>0.2011556516538279</v>
+        <v>0.208273298555025</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4559,13 +4559,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.1679710910625188</v>
+        <v>0.1657970633671852</v>
       </c>
       <c r="C41">
-        <v>15.14170427276545</v>
+        <v>16.06541985043111</v>
       </c>
       <c r="D41">
-        <v>44.10310427276545</v>
+        <v>45.02681985043111</v>
       </c>
       <c r="E41">
         <v>28.1474</v>
@@ -4592,37 +4592,37 @@
         <v>1.1</v>
       </c>
       <c r="M41">
-        <v>5.61230748</v>
+        <v>5.42050938</v>
       </c>
       <c r="N41">
-        <v>-4.51230748</v>
+        <v>-4.320509380000001</v>
       </c>
       <c r="O41">
-        <v>-0.9927076456000001</v>
+        <v>-0.9505120636000002</v>
       </c>
       <c r="P41">
-        <v>-3.5195998344</v>
+        <v>-3.369997316400001</v>
       </c>
       <c r="Q41">
-        <v>-3.3995998344</v>
+        <v>-3.249997316400001</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.1590026405834162</v>
+        <v>0.1595943984599185</v>
       </c>
       <c r="T41">
-        <v>1.496411056377956</v>
+        <v>1.495505409085055</v>
       </c>
       <c r="U41">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V41">
-        <v>0.04311951917502567</v>
+        <v>0.04464525066461559</v>
       </c>
       <c r="W41">
-        <v>0.1819986674529101</v>
+        <v>0.1754986674529101</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="Y41">
-        <v>0.1959978144319348</v>
+        <v>0.2029329575664344</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4641,13 +4641,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.1697150910625189</v>
+        <v>0.1675410633671852</v>
       </c>
       <c r="C42">
-        <v>13.88537540718942</v>
+        <v>14.8125720867458</v>
       </c>
       <c r="D42">
-        <v>43.60337540718942</v>
+        <v>44.5305720867458</v>
       </c>
       <c r="E42">
         <v>28.904</v>
@@ -4674,37 +4674,37 @@
         <v>1.1</v>
       </c>
       <c r="M42">
-        <v>5.7562128</v>
+        <v>5.5594968</v>
       </c>
       <c r="N42">
-        <v>-4.6562128</v>
+        <v>-4.4594968</v>
       </c>
       <c r="O42">
-        <v>-1.024366816</v>
+        <v>-0.9810892960000001</v>
       </c>
       <c r="P42">
-        <v>-3.631845984</v>
+        <v>-3.478407504</v>
       </c>
       <c r="Q42">
-        <v>-3.511845984000001</v>
+        <v>-3.358407504000001</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.1613893512598065</v>
+        <v>0.1620993051009171</v>
       </c>
       <c r="T42">
-        <v>1.521351240650921</v>
+        <v>1.520430499236473</v>
       </c>
       <c r="U42">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V42">
-        <v>0.04204153119565003</v>
+        <v>0.0435291193980002</v>
       </c>
       <c r="W42">
-        <v>0.1822037007665874</v>
+        <v>0.1757037007665874</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="Y42">
-        <v>0.1910978690711365</v>
+        <v>0.1978596336272735</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4723,13 +4723,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.1714590910625188</v>
+        <v>0.1692850633671852</v>
       </c>
       <c r="C43">
-        <v>12.64024443742039</v>
+        <v>13.57054353432498</v>
       </c>
       <c r="D43">
-        <v>43.11484443742039</v>
+        <v>44.04514353432499</v>
       </c>
       <c r="E43">
         <v>29.6606</v>
@@ -4756,37 +4756,37 @@
         <v>1.1</v>
       </c>
       <c r="M43">
-        <v>5.90011812</v>
+        <v>5.69848422</v>
       </c>
       <c r="N43">
-        <v>-4.80011812</v>
+        <v>-4.59848422</v>
       </c>
       <c r="O43">
-        <v>-1.0560259864</v>
+        <v>-1.0116665284</v>
       </c>
       <c r="P43">
-        <v>-3.744092133600001</v>
+        <v>-3.586817691599999</v>
       </c>
       <c r="Q43">
-        <v>-3.6240921336</v>
+        <v>-3.466817691599999</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.1638569673828541</v>
+        <v>0.1646891238314411</v>
       </c>
       <c r="T43">
-        <v>1.547136854899242</v>
+        <v>1.546200507698108</v>
       </c>
       <c r="U43">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V43">
-        <v>0.04101612799575613</v>
+        <v>0.04246743355902458</v>
       </c>
       <c r="W43">
-        <v>0.1823987324552072</v>
+        <v>0.1758987324552072</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         </is>
       </c>
       <c r="Y43">
-        <v>0.186436945435255</v>
+        <v>0.1930337889046573</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4805,13 +4805,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.1732030910625189</v>
+        <v>0.1710290633671852</v>
       </c>
       <c r="C44">
-        <v>11.40593915100389</v>
+        <v>12.33898418734934</v>
       </c>
       <c r="D44">
-        <v>42.63713915100389</v>
+        <v>43.57018418734933</v>
       </c>
       <c r="E44">
         <v>30.4172</v>
@@ -4838,37 +4838,37 @@
         <v>1.1</v>
       </c>
       <c r="M44">
-        <v>6.044023439999999</v>
+        <v>5.83747164</v>
       </c>
       <c r="N44">
-        <v>-4.944023439999999</v>
+        <v>-4.737471639999999</v>
       </c>
       <c r="O44">
-        <v>-1.0876851568</v>
+        <v>-1.0422437608</v>
       </c>
       <c r="P44">
-        <v>-3.856338283199999</v>
+        <v>-3.695227879199999</v>
       </c>
       <c r="Q44">
-        <v>-3.736338283199999</v>
+        <v>-3.575227879199999</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.1664096737170412</v>
+        <v>0.1673682466561212</v>
       </c>
       <c r="T44">
-        <v>1.573811628259574</v>
+        <v>1.572859137141179</v>
       </c>
       <c r="U44">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V44">
-        <v>0.0400395535196667</v>
+        <v>0.04145630418857162</v>
       </c>
       <c r="W44">
-        <v>0.1825844769205594</v>
+        <v>0.1760844769205594</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="Y44">
-        <v>0.1819979705439396</v>
+        <v>0.1884377463116893</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4887,13 +4887,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.1749470910625189</v>
+        <v>0.1727730633671852</v>
       </c>
       <c r="C45">
-        <v>10.18210365092089</v>
+        <v>11.11755897604183</v>
       </c>
       <c r="D45">
-        <v>42.16990365092089</v>
+        <v>43.10535897604183</v>
       </c>
       <c r="E45">
         <v>31.1738</v>
@@ -4920,37 +4920,37 @@
         <v>1.1</v>
       </c>
       <c r="M45">
-        <v>6.18792876</v>
+        <v>5.97645906</v>
       </c>
       <c r="N45">
-        <v>-5.08792876</v>
+        <v>-4.87645906</v>
       </c>
       <c r="O45">
-        <v>-1.1193443272</v>
+        <v>-1.0728209932</v>
       </c>
       <c r="P45">
-        <v>-3.9685844328</v>
+        <v>-3.8036380668</v>
       </c>
       <c r="Q45">
-        <v>-3.8485844328</v>
+        <v>-3.6836380668</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.1690519486945332</v>
+        <v>0.1701413737904391</v>
       </c>
       <c r="T45">
-        <v>1.601422358579917</v>
+        <v>1.600453157091024</v>
       </c>
       <c r="U45">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V45">
-        <v>0.03910840111223259</v>
+        <v>0.04049220409116298</v>
       </c>
       <c r="W45">
-        <v>0.1827615821084534</v>
+        <v>0.1762615821084534</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         </is>
       </c>
       <c r="Y45">
-        <v>0.1777654596010572</v>
+        <v>0.1840554731416498</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -4969,13 +4969,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.1766910910625189</v>
+        <v>0.1745170633671853</v>
       </c>
       <c r="C46">
-        <v>8.968397471321254</v>
+        <v>9.905946978357633</v>
       </c>
       <c r="D46">
-        <v>41.71279747132125</v>
+        <v>42.65034697835763</v>
       </c>
       <c r="E46">
         <v>31.9304</v>
@@ -5002,37 +5002,37 @@
         <v>1.1</v>
       </c>
       <c r="M46">
-        <v>6.33183408</v>
+        <v>6.11544648</v>
       </c>
       <c r="N46">
-        <v>-5.23183408</v>
+        <v>-5.01544648</v>
       </c>
       <c r="O46">
-        <v>-1.1510034976</v>
+        <v>-1.1033982256</v>
       </c>
       <c r="P46">
-        <v>-4.080830582400001</v>
+        <v>-3.9120482544</v>
       </c>
       <c r="Q46">
-        <v>-3.960830582400001</v>
+        <v>-3.7920482544</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.171788590635507</v>
+        <v>0.1730135411795541</v>
       </c>
       <c r="T46">
-        <v>1.630019186411702</v>
+        <v>1.629032677753364</v>
       </c>
       <c r="U46">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V46">
-        <v>0.0382195738142273</v>
+        <v>0.03957192672545472</v>
       </c>
       <c r="W46">
-        <v>0.182930637060534</v>
+        <v>0.176430637060534</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         </is>
       </c>
       <c r="Y46">
-        <v>0.173725335519215</v>
+        <v>0.1798723942066125</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5051,13 +5051,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.1784350910625189</v>
+        <v>0.1762610633671852</v>
       </c>
       <c r="C47">
-        <v>7.764494750151322</v>
+        <v>8.703840681079988</v>
       </c>
       <c r="D47">
-        <v>41.26549475015132</v>
+        <v>42.20484068107999</v>
       </c>
       <c r="E47">
         <v>32.687</v>
@@ -5084,37 +5084,37 @@
         <v>1.1</v>
       </c>
       <c r="M47">
-        <v>6.4757394</v>
+        <v>6.2544339</v>
       </c>
       <c r="N47">
-        <v>-5.375739400000001</v>
+        <v>-5.154433899999999</v>
       </c>
       <c r="O47">
-        <v>-1.182662668</v>
+        <v>-1.133975458</v>
       </c>
       <c r="P47">
-        <v>-4.193076732000001</v>
+        <v>-4.020458441999999</v>
       </c>
       <c r="Q47">
-        <v>-4.073076732000001</v>
+        <v>-3.900458441999999</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.1746247468288798</v>
+        <v>0.1759901510191823</v>
       </c>
       <c r="T47">
-        <v>1.659655898891914</v>
+        <v>1.658651453712515</v>
       </c>
       <c r="U47">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V47">
-        <v>0.03737024995168892</v>
+        <v>0.03869255057600018</v>
       </c>
       <c r="W47">
-        <v>0.1830921784591888</v>
+        <v>0.1765921784591888</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="Y47">
-        <v>0.1698647725076768</v>
+        <v>0.17587522989091</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5133,13 +5133,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.1801790910625189</v>
+        <v>0.1780050633671852</v>
       </c>
       <c r="C48">
-        <v>6.570083454450135</v>
+        <v>7.510945286746718</v>
       </c>
       <c r="D48">
-        <v>40.82768345445014</v>
+        <v>41.76854528674672</v>
       </c>
       <c r="E48">
         <v>33.4436</v>
@@ -5166,37 +5166,37 @@
         <v>1.1</v>
       </c>
       <c r="M48">
-        <v>6.619644720000001</v>
+        <v>6.393421320000001</v>
       </c>
       <c r="N48">
-        <v>-5.519644720000001</v>
+        <v>-5.29342132</v>
       </c>
       <c r="O48">
-        <v>-1.2143218384</v>
+        <v>-1.1645526904</v>
       </c>
       <c r="P48">
-        <v>-4.3053228816</v>
+        <v>-4.1288686296</v>
       </c>
       <c r="Q48">
-        <v>-4.1853228816</v>
+        <v>-4.0088686296</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.1775659458442295</v>
+        <v>0.1790770056676857</v>
       </c>
       <c r="T48">
-        <v>1.690390267389913</v>
+        <v>1.689367221373859</v>
       </c>
       <c r="U48">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V48">
-        <v>0.03655785321360872</v>
+        <v>0.03785140817217408</v>
       </c>
       <c r="W48">
-        <v>0.1832466963187716</v>
+        <v>0.1767466963187716</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         </is>
       </c>
       <c r="Y48">
-        <v>0.1661720600618579</v>
+        <v>0.1720518553280641</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5215,13 +5215,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.1819230910625189</v>
+        <v>0.1797490633671852</v>
       </c>
       <c r="C49">
-        <v>5.384864654443795</v>
+        <v>6.326978063125409</v>
       </c>
       <c r="D49">
-        <v>40.3990646544438</v>
+        <v>41.34117806312541</v>
       </c>
       <c r="E49">
         <v>34.2002</v>
@@ -5248,37 +5248,37 @@
         <v>1.1</v>
       </c>
       <c r="M49">
-        <v>6.763550040000001</v>
+        <v>6.53240874</v>
       </c>
       <c r="N49">
-        <v>-5.663550040000001</v>
+        <v>-5.43240874</v>
       </c>
       <c r="O49">
-        <v>-1.2459810088</v>
+        <v>-1.1951299228</v>
       </c>
       <c r="P49">
-        <v>-4.4175690312</v>
+        <v>-4.2372788172</v>
       </c>
       <c r="Q49">
-        <v>-4.2975690312</v>
+        <v>-4.1172788172</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.1806181335016677</v>
+        <v>0.1822803453972647</v>
       </c>
       <c r="T49">
-        <v>1.722284423378402</v>
+        <v>1.721242074607328</v>
       </c>
       <c r="U49">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V49">
-        <v>0.03578002654948938</v>
+        <v>0.03704605906212782</v>
       </c>
       <c r="W49">
-        <v>0.1833946389502871</v>
+        <v>0.1768946389502871</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="Y49">
-        <v>0.1626364843158609</v>
+        <v>0.1683911775551266</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5297,13 +5297,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.1836670910625189</v>
+        <v>0.1814930633671852</v>
       </c>
       <c r="C50">
-        <v>4.208551842889158</v>
+        <v>5.151667732220005</v>
       </c>
       <c r="D50">
-        <v>39.97935184288915</v>
+        <v>40.92246773222</v>
       </c>
       <c r="E50">
         <v>34.95679999999999</v>
@@ -5330,37 +5330,37 @@
         <v>1.1</v>
       </c>
       <c r="M50">
-        <v>6.907455359999999</v>
+        <v>6.671396159999999</v>
       </c>
       <c r="N50">
-        <v>-5.807455359999999</v>
+        <v>-5.571396159999999</v>
       </c>
       <c r="O50">
-        <v>-1.2776401792</v>
+        <v>-1.2257071552</v>
       </c>
       <c r="P50">
-        <v>-4.529815180799999</v>
+        <v>-4.345689004799999</v>
       </c>
       <c r="Q50">
-        <v>-4.409815180799999</v>
+        <v>-4.225689004799999</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1837877129920844</v>
+        <v>0.1856068905010582</v>
       </c>
       <c r="T50">
-        <v>1.75540527767414</v>
+        <v>1.754342883734392</v>
       </c>
       <c r="U50">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V50">
-        <v>0.03503460932970837</v>
+        <v>0.03627426616500017</v>
       </c>
       <c r="W50">
-        <v>0.1835364173054895</v>
+        <v>0.1770364173054895</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         </is>
       </c>
       <c r="Y50">
-        <v>0.1592482242259472</v>
+        <v>0.164883028022728</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5379,13 +5379,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.1854110910625189</v>
+        <v>0.1832370633671852</v>
       </c>
       <c r="C51">
-        <v>3.040870296409985</v>
+        <v>3.984753896034732</v>
       </c>
       <c r="D51">
-        <v>39.56827029640998</v>
+        <v>40.51215389603473</v>
       </c>
       <c r="E51">
         <v>35.7134</v>
@@ -5412,37 +5412,37 @@
         <v>1.1</v>
       </c>
       <c r="M51">
-        <v>7.05136068</v>
+        <v>6.81038358</v>
       </c>
       <c r="N51">
-        <v>-5.951360680000001</v>
+        <v>-5.71038358</v>
       </c>
       <c r="O51">
-        <v>-1.3092993496</v>
+        <v>-1.2562843876</v>
       </c>
       <c r="P51">
-        <v>-4.642061330400001</v>
+        <v>-4.4540991924</v>
       </c>
       <c r="Q51">
-        <v>-4.522061330400001</v>
+        <v>-4.3340991924</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.1870815897174194</v>
+        <v>0.1890638883540201</v>
       </c>
       <c r="T51">
-        <v>1.789824989001084</v>
+        <v>1.788741763807615</v>
       </c>
       <c r="U51">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V51">
-        <v>0.03431961730257146</v>
+        <v>0.03553397501877567</v>
       </c>
       <c r="W51">
-        <v>0.1836724087890509</v>
+        <v>0.1771724087890509</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         </is>
       </c>
       <c r="Y51">
-        <v>0.1559982604662338</v>
+        <v>0.1615180682671621</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5461,13 +5461,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.1871550910625188</v>
+        <v>0.1849810633671852</v>
       </c>
       <c r="C52">
-        <v>1.88155647583396</v>
+        <v>2.825986496540942</v>
       </c>
       <c r="D52">
-        <v>39.16555647583396</v>
+        <v>40.10998649654094</v>
       </c>
       <c r="E52">
         <v>36.47</v>
@@ -5494,37 +5494,37 @@
         <v>1.1</v>
       </c>
       <c r="M52">
-        <v>7.195266</v>
+        <v>6.949371</v>
       </c>
       <c r="N52">
-        <v>-6.095266000000001</v>
+        <v>-5.849371</v>
       </c>
       <c r="O52">
-        <v>-1.34095852</v>
+        <v>-1.28686162</v>
       </c>
       <c r="P52">
-        <v>-4.75430748</v>
+        <v>-4.56250938</v>
       </c>
       <c r="Q52">
-        <v>-4.63430748</v>
+        <v>-4.44250938</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.1905072215117678</v>
+        <v>0.1926591661211006</v>
       </c>
       <c r="T52">
-        <v>1.825621488781106</v>
+        <v>1.824516599083767</v>
       </c>
       <c r="U52">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V52">
-        <v>0.03363322495652003</v>
+        <v>0.03482329551840016</v>
       </c>
       <c r="W52">
-        <v>0.1838029606132699</v>
+        <v>0.1773029606132699</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="Y52">
-        <v>0.1528782952569091</v>
+        <v>0.1582877069018189</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5543,13 +5543,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.1888990910625188</v>
+        <v>0.1867250633671853</v>
       </c>
       <c r="C53">
-        <v>0.730357462779736</v>
+        <v>1.675125307493474</v>
       </c>
       <c r="D53">
-        <v>38.77095746277973</v>
+        <v>39.71572530749347</v>
       </c>
       <c r="E53">
         <v>37.2266</v>
@@ -5576,37 +5576,37 @@
         <v>1.1</v>
       </c>
       <c r="M53">
-        <v>7.33917132</v>
+        <v>7.08835842</v>
       </c>
       <c r="N53">
-        <v>-6.239171320000001</v>
+        <v>-5.988358419999999</v>
       </c>
       <c r="O53">
-        <v>-1.3726176904</v>
+        <v>-1.3174388524</v>
       </c>
       <c r="P53">
-        <v>-4.8665536296</v>
+        <v>-4.670919567599999</v>
       </c>
       <c r="Q53">
-        <v>-4.7465536296</v>
+        <v>-4.550919567599999</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.194072675012008</v>
+        <v>0.1964011899194904</v>
       </c>
       <c r="T53">
-        <v>1.862879070184802</v>
+        <v>1.86175163171813</v>
       </c>
       <c r="U53">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V53">
-        <v>0.03297374995737257</v>
+        <v>0.0341404858023531</v>
       </c>
       <c r="W53">
-        <v>0.1839283927581077</v>
+        <v>0.1774283927581077</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="Y53">
-        <v>0.1498806816244207</v>
+        <v>0.1551840263743324</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5625,13 +5625,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.1906430910625189</v>
+        <v>0.1884690633671852</v>
       </c>
       <c r="C54">
-        <v>-0.4129695700368572</v>
+        <v>0.5319394559264481</v>
       </c>
       <c r="D54">
-        <v>38.38423042996315</v>
+        <v>39.32913945592645</v>
       </c>
       <c r="E54">
         <v>37.9832</v>
@@ -5658,37 +5658,37 @@
         <v>1.1</v>
       </c>
       <c r="M54">
-        <v>7.483076640000001</v>
+        <v>7.227345840000001</v>
       </c>
       <c r="N54">
-        <v>-6.383076640000001</v>
+        <v>-6.12734584</v>
       </c>
       <c r="O54">
-        <v>-1.4042768608</v>
+        <v>-1.3480160848</v>
       </c>
       <c r="P54">
-        <v>-4.978799779200001</v>
+        <v>-4.7793297552</v>
       </c>
       <c r="Q54">
-        <v>-4.858799779200001</v>
+        <v>-4.6593297552</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.1977866890747581</v>
+        <v>0.2002991313761464</v>
       </c>
       <c r="T54">
-        <v>1.901689050813652</v>
+        <v>1.900538124045591</v>
       </c>
       <c r="U54">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V54">
-        <v>0.03233963938126926</v>
+        <v>0.03348393799846169</v>
       </c>
       <c r="W54">
-        <v>0.1840490005896826</v>
+        <v>0.1775490005896826</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="Y54">
-        <v>0.1469983608239512</v>
+        <v>0.1521997181748259</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5707,13 +5707,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.1923870910625189</v>
+        <v>0.1902130633671852</v>
       </c>
       <c r="C55">
-        <v>-1.548657857108502</v>
+        <v>-0.6037930286743105</v>
       </c>
       <c r="D55">
-        <v>38.0051421428915</v>
+        <v>38.95000697132569</v>
       </c>
       <c r="E55">
         <v>38.7398</v>
@@ -5740,37 +5740,37 @@
         <v>1.1</v>
       </c>
       <c r="M55">
-        <v>7.626981960000001</v>
+        <v>7.36633326</v>
       </c>
       <c r="N55">
-        <v>-6.526981960000001</v>
+        <v>-6.26633326</v>
       </c>
       <c r="O55">
-        <v>-1.4359360312</v>
+        <v>-1.3785933172</v>
       </c>
       <c r="P55">
-        <v>-5.091045928800001</v>
+        <v>-4.8877399428</v>
       </c>
       <c r="Q55">
-        <v>-4.971045928800001</v>
+        <v>-4.7677399428</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.2016587462891147</v>
+        <v>0.2043629426820219</v>
       </c>
       <c r="T55">
-        <v>1.9421505199799</v>
+        <v>1.940975105408263</v>
       </c>
       <c r="U55">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V55">
-        <v>0.03172945750615096</v>
+        <v>0.03285216558339637</v>
       </c>
       <c r="W55">
-        <v>0.1841650571823301</v>
+        <v>0.1776650571823301</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="Y55">
-        <v>0.1442248068461408</v>
+        <v>0.1493280253790745</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5789,13 +5789,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.1941310910625189</v>
+        <v>0.1919570633671852</v>
       </c>
       <c r="C56">
-        <v>-2.676931509203008</v>
+        <v>-1.732285639371973</v>
       </c>
       <c r="D56">
-        <v>37.63346849079699</v>
+        <v>38.57811436062803</v>
       </c>
       <c r="E56">
         <v>39.4964</v>
@@ -5822,37 +5822,37 @@
         <v>1.1</v>
       </c>
       <c r="M56">
-        <v>7.77088728</v>
+        <v>7.505320680000001</v>
       </c>
       <c r="N56">
-        <v>-6.670887280000001</v>
+        <v>-6.405320680000001</v>
       </c>
       <c r="O56">
-        <v>-1.4675952016</v>
+        <v>-1.4091705496</v>
       </c>
       <c r="P56">
-        <v>-5.203292078400001</v>
+        <v>-4.9961501304</v>
       </c>
       <c r="Q56">
-        <v>-5.0832920784</v>
+        <v>-4.8761501304</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.2056991538171389</v>
+        <v>0.2086034414359788</v>
       </c>
       <c r="T56">
-        <v>1.984371183457724</v>
+        <v>1.983170216395399</v>
       </c>
       <c r="U56">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V56">
-        <v>0.03114187495974077</v>
+        <v>0.0322437921466668</v>
       </c>
       <c r="W56">
-        <v>0.1842768153826573</v>
+        <v>0.1777768153826573</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="Y56">
-        <v>0.1415539770897307</v>
+        <v>0.1465626915757582</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5871,13 +5871,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.1958750910625189</v>
+        <v>0.1937010633671852</v>
       </c>
       <c r="C57">
-        <v>-3.798005955172684</v>
+        <v>-2.853743792662364</v>
       </c>
       <c r="D57">
-        <v>37.26899404482732</v>
+        <v>38.21325620733764</v>
       </c>
       <c r="E57">
         <v>40.253</v>
@@ -5904,37 +5904,37 @@
         <v>1.1</v>
       </c>
       <c r="M57">
-        <v>7.9147926</v>
+        <v>7.6443081</v>
       </c>
       <c r="N57">
-        <v>-6.814792600000001</v>
+        <v>-6.5443081</v>
       </c>
       <c r="O57">
-        <v>-1.499254372</v>
+        <v>-1.439747782</v>
       </c>
       <c r="P57">
-        <v>-5.315538228</v>
+        <v>-5.104560318000001</v>
       </c>
       <c r="Q57">
-        <v>-5.195538228</v>
+        <v>-4.984560318000001</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.2099191350130754</v>
+        <v>0.2130324068012228</v>
       </c>
       <c r="T57">
-        <v>2.028468320867896</v>
+        <v>2.02724066564863</v>
       </c>
       <c r="U57">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V57">
-        <v>0.03057565905138184</v>
+        <v>0.03165754138036378</v>
       </c>
       <c r="W57">
-        <v>0.1843845096484272</v>
+        <v>0.1778845096484272</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         </is>
       </c>
       <c r="Y57">
-        <v>0.1389802684153719</v>
+        <v>0.1438979153652898</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -5953,13 +5953,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.1976190910625188</v>
+        <v>0.1954450633671852</v>
       </c>
       <c r="C58">
-        <v>-4.91208835833698</v>
+        <v>-3.968365206822227</v>
       </c>
       <c r="D58">
-        <v>36.91151164166303</v>
+        <v>37.85523479317778</v>
       </c>
       <c r="E58">
         <v>41.00960000000001</v>
@@ -5986,37 +5986,37 @@
         <v>1.1</v>
       </c>
       <c r="M58">
-        <v>8.058697920000002</v>
+        <v>7.783295520000001</v>
       </c>
       <c r="N58">
-        <v>-6.958697920000002</v>
+        <v>-6.683295520000001</v>
       </c>
       <c r="O58">
-        <v>-1.5309135424</v>
+        <v>-1.4703250144</v>
       </c>
       <c r="P58">
-        <v>-5.427784377600002</v>
+        <v>-5.212970505600001</v>
       </c>
       <c r="Q58">
-        <v>-5.307784377600002</v>
+        <v>-5.092970505600001</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.2143309335360998</v>
+        <v>0.2176626887739779</v>
       </c>
       <c r="T58">
-        <v>2.074569873614893</v>
+        <v>2.073314317140645</v>
       </c>
       <c r="U58">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V58">
-        <v>0.03002966513975001</v>
+        <v>0.03109222814142871</v>
       </c>
       <c r="W58">
-        <v>0.1844883576904195</v>
+        <v>0.1779883576904195</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="Y58">
-        <v>0.1364984779079546</v>
+        <v>0.1413283097337668</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6035,13 +6035,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.1993630910625189</v>
+        <v>0.1971890633671853</v>
       </c>
       <c r="C59">
-        <v>-6.019378009129234</v>
+        <v>-5.076340259186424</v>
       </c>
       <c r="D59">
-        <v>36.56082199087077</v>
+        <v>37.50385974081358</v>
       </c>
       <c r="E59">
         <v>41.7662</v>
@@ -6068,37 +6068,37 @@
         <v>1.1</v>
       </c>
       <c r="M59">
-        <v>8.202603240000002</v>
+        <v>7.922282940000001</v>
       </c>
       <c r="N59">
-        <v>-7.102603240000002</v>
+        <v>-6.822282940000001</v>
       </c>
       <c r="O59">
-        <v>-1.5625727128</v>
+        <v>-1.5009022468</v>
       </c>
       <c r="P59">
-        <v>-5.540030527200002</v>
+        <v>-5.321380693200001</v>
       </c>
       <c r="Q59">
-        <v>-5.420030527200002</v>
+        <v>-5.201380693200001</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.2189479319904277</v>
+        <v>0.2225083326989542</v>
       </c>
       <c r="T59">
-        <v>2.122815684629193</v>
+        <v>2.121530929167172</v>
       </c>
       <c r="U59">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V59">
-        <v>0.02950282890922808</v>
+        <v>0.03054675045473698</v>
       </c>
       <c r="W59">
-        <v>0.1845885619414648</v>
+        <v>0.1780885619414648</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         </is>
       </c>
       <c r="Y59">
-        <v>0.1341037677692185</v>
+        <v>0.1388488657033499</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6117,13 +6117,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.2011070910625188</v>
+        <v>0.1989330633671852</v>
       </c>
       <c r="C60">
-        <v>-7.120066695571154</v>
+        <v>-6.177852323710361</v>
       </c>
       <c r="D60">
-        <v>36.21673330442884</v>
+        <v>37.15894767628964</v>
       </c>
       <c r="E60">
         <v>42.5228</v>
@@ -6150,37 +6150,37 @@
         <v>1.1</v>
       </c>
       <c r="M60">
-        <v>8.34650856</v>
+        <v>8.06127036</v>
       </c>
       <c r="N60">
-        <v>-7.246508560000001</v>
+        <v>-6.96127036</v>
       </c>
       <c r="O60">
-        <v>-1.5942318832</v>
+        <v>-1.5314794792</v>
       </c>
       <c r="P60">
-        <v>-5.652276676800001</v>
+        <v>-5.429790880800001</v>
       </c>
       <c r="Q60">
-        <v>-5.5322766768</v>
+        <v>-5.309790880800001</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.2237847875140092</v>
+        <v>0.2275847215727387</v>
       </c>
       <c r="T60">
-        <v>2.173358915215601</v>
+        <v>2.172043570337818</v>
       </c>
       <c r="U60">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V60">
-        <v>0.02899415944527588</v>
+        <v>0.03002008234344841</v>
       </c>
       <c r="W60">
-        <v>0.1846853108735085</v>
+        <v>0.1781853108735085</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="Y60">
-        <v>0.1317916338421631</v>
+        <v>0.1364549197429473</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6199,13 +6199,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.2028510910625189</v>
+        <v>0.2006770633671852</v>
       </c>
       <c r="C61">
-        <v>-8.214339053022485</v>
+        <v>-7.273078090075643</v>
       </c>
       <c r="D61">
-        <v>35.87906094697751</v>
+        <v>36.82032190992435</v>
       </c>
       <c r="E61">
         <v>43.2794</v>
@@ -6232,37 +6232,37 @@
         <v>1.1</v>
       </c>
       <c r="M61">
-        <v>8.49041388</v>
+        <v>8.200257779999999</v>
       </c>
       <c r="N61">
-        <v>-7.390413880000001</v>
+        <v>-7.10025778</v>
       </c>
       <c r="O61">
-        <v>-1.6258910536</v>
+        <v>-1.5620567116</v>
       </c>
       <c r="P61">
-        <v>-5.7645228264</v>
+        <v>-5.538201068399999</v>
       </c>
       <c r="Q61">
-        <v>-5.6445228264</v>
+        <v>-5.418201068399999</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.2288575872094729</v>
+        <v>0.2329087391720738</v>
       </c>
       <c r="T61">
-        <v>2.226367669245251</v>
+        <v>2.225020242785082</v>
       </c>
       <c r="U61">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V61">
-        <v>0.02850273301400002</v>
+        <v>0.02951126738847471</v>
       </c>
       <c r="W61">
-        <v>0.1847787801807372</v>
+        <v>0.1782787801807372</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         </is>
       </c>
       <c r="Y61">
-        <v>0.1295578773363637</v>
+        <v>0.1341421244930668</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6281,13 +6281,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.2045950910625188</v>
+        <v>0.2024210633671852</v>
       </c>
       <c r="C62">
-        <v>-9.302372894545449</v>
+        <v>-8.362187865505028</v>
       </c>
       <c r="D62">
-        <v>35.54762710545454</v>
+        <v>36.48781213449497</v>
       </c>
       <c r="E62">
         <v>44.03599999999999</v>
@@ -6314,37 +6314,37 @@
         <v>1.1</v>
       </c>
       <c r="M62">
-        <v>8.634319199999998</v>
+        <v>8.339245199999999</v>
       </c>
       <c r="N62">
-        <v>-7.534319199999999</v>
+        <v>-7.239245199999999</v>
       </c>
       <c r="O62">
-        <v>-1.657550224</v>
+        <v>-1.592633944</v>
       </c>
       <c r="P62">
-        <v>-5.876768975999999</v>
+        <v>-5.646611255999999</v>
       </c>
       <c r="Q62">
-        <v>-5.756768975999999</v>
+        <v>-5.526611255999999</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.2341840268897097</v>
+        <v>0.2384989576513757</v>
       </c>
       <c r="T62">
-        <v>2.282026860976382</v>
+        <v>2.280645748854709</v>
       </c>
       <c r="U62">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V62">
-        <v>0.02802768746376669</v>
+        <v>0.02901941293200013</v>
       </c>
       <c r="W62">
-        <v>0.1848691338443916</v>
+        <v>0.1783691338443916</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="Y62">
-        <v>0.1273985793807576</v>
+        <v>0.1319064224181824</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6363,13 +6363,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.2063390910625188</v>
+        <v>0.2041650633671852</v>
       </c>
       <c r="C63">
-        <v>-10.38433952312652</v>
+        <v>-9.445345860370701</v>
       </c>
       <c r="D63">
-        <v>35.22226047687348</v>
+        <v>36.1612541396293</v>
       </c>
       <c r="E63">
         <v>44.7926</v>
@@ -6396,37 +6396,37 @@
         <v>1.1</v>
       </c>
       <c r="M63">
-        <v>8.77822452</v>
+        <v>8.47823262</v>
       </c>
       <c r="N63">
-        <v>-7.678224520000001</v>
+        <v>-7.37823262</v>
       </c>
       <c r="O63">
-        <v>-1.6892093944</v>
+        <v>-1.6232111764</v>
       </c>
       <c r="P63">
-        <v>-5.9890151256</v>
+        <v>-5.7550214436</v>
       </c>
       <c r="Q63">
-        <v>-5.8690151256</v>
+        <v>-5.6350214436</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.2397836173227792</v>
+        <v>0.244375854001411</v>
       </c>
       <c r="T63">
-        <v>2.340540370232187</v>
+        <v>2.339123844979189</v>
       </c>
       <c r="U63">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V63">
-        <v>0.02756821717747543</v>
+        <v>0.02854368485114767</v>
       </c>
       <c r="W63">
-        <v>0.1849565250928442</v>
+        <v>0.1784565250928442</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         </is>
       </c>
       <c r="Y63">
-        <v>0.1253100780794337</v>
+        <v>0.1297440220506711</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6445,13 +6445,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.2080830910625188</v>
+        <v>0.2059090633671852</v>
       </c>
       <c r="C64">
-        <v>-11.46040402690702</v>
+        <v>-10.52271045860152</v>
       </c>
       <c r="D64">
-        <v>34.90279597309298</v>
+        <v>35.84048954139848</v>
       </c>
       <c r="E64">
         <v>45.5492</v>
@@ -6478,37 +6478,37 @@
         <v>1.1</v>
       </c>
       <c r="M64">
-        <v>8.92212984</v>
+        <v>8.617220039999999</v>
       </c>
       <c r="N64">
-        <v>-7.822129840000001</v>
+        <v>-7.51722004</v>
       </c>
       <c r="O64">
-        <v>-1.7208685648</v>
+        <v>-1.6537884088</v>
       </c>
       <c r="P64">
-        <v>-6.101261275200001</v>
+        <v>-5.8634316312</v>
       </c>
       <c r="Q64">
-        <v>-5.981261275200001</v>
+        <v>-5.7434316312</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.2456779230417997</v>
+        <v>0.2505620606856586</v>
       </c>
       <c r="T64">
-        <v>2.402133537869876</v>
+        <v>2.400679735636536</v>
       </c>
       <c r="U64">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V64">
-        <v>0.0271235685133226</v>
+        <v>0.02808330283741949</v>
       </c>
       <c r="W64">
-        <v>0.1850410972687661</v>
+        <v>0.178541097268766</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="Y64">
-        <v>0.12328894778783</v>
+        <v>0.1276513765337248</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6527,13 +6527,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.2098270910625188</v>
+        <v>0.2076530633671852</v>
       </c>
       <c r="C65">
-        <v>-12.5307255584918</v>
+        <v>-11.59443447382528</v>
       </c>
       <c r="D65">
-        <v>34.5890744415082</v>
+        <v>35.52536552617472</v>
       </c>
       <c r="E65">
         <v>46.3058</v>
@@ -6560,37 +6560,37 @@
         <v>1.1</v>
       </c>
       <c r="M65">
-        <v>9.06603516</v>
+        <v>8.756207459999999</v>
       </c>
       <c r="N65">
-        <v>-7.966035160000001</v>
+        <v>-7.656207459999999</v>
       </c>
       <c r="O65">
-        <v>-1.7525277352</v>
+        <v>-1.6843656412</v>
       </c>
       <c r="P65">
-        <v>-6.2135074248</v>
+        <v>-5.9718418188</v>
       </c>
       <c r="Q65">
-        <v>-6.0935074248</v>
+        <v>-5.8518418188</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.2518908398807673</v>
+        <v>0.2570826569204062</v>
       </c>
       <c r="T65">
-        <v>2.467056065920413</v>
+        <v>2.465562971734821</v>
       </c>
       <c r="U65">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V65">
-        <v>0.0266930356797778</v>
+        <v>0.02763753612571442</v>
       </c>
       <c r="W65">
-        <v>0.1851229846137063</v>
+        <v>0.1786229846137063</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="Y65">
-        <v>0.1213319803626263</v>
+        <v>0.1256251642077928</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6609,13 +6609,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.2115710910625189</v>
+        <v>0.2093970633671852</v>
       </c>
       <c r="C66">
-        <v>-13.59545759932885</v>
+        <v>-12.66066539211594</v>
       </c>
       <c r="D66">
-        <v>34.28094240067114</v>
+        <v>35.21573460788405</v>
       </c>
       <c r="E66">
         <v>47.0624</v>
@@ -6642,37 +6642,37 @@
         <v>1.1</v>
       </c>
       <c r="M66">
-        <v>9.20994048</v>
+        <v>8.89519488</v>
       </c>
       <c r="N66">
-        <v>-8.109940480000001</v>
+        <v>-7.79519488</v>
       </c>
       <c r="O66">
-        <v>-1.7841869056</v>
+        <v>-1.7149428736</v>
       </c>
       <c r="P66">
-        <v>-6.3257535744</v>
+        <v>-6.0802520064</v>
       </c>
       <c r="Q66">
-        <v>-6.2057535744</v>
+        <v>-5.9602520064</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.2584489187663442</v>
+        <v>0.2639655085015286</v>
       </c>
       <c r="T66">
-        <v>2.535585401084869</v>
+        <v>2.534050832060788</v>
       </c>
       <c r="U66">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V66">
-        <v>0.02627595699728127</v>
+        <v>0.02720569962375012</v>
       </c>
       <c r="W66">
-        <v>0.1852023129791171</v>
+        <v>0.1787023129791171</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         </is>
       </c>
       <c r="Y66">
-        <v>0.1194361681694602</v>
+        <v>0.123662271017046</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6691,13 +6691,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.2133150910625188</v>
+        <v>0.2111410633671852</v>
       </c>
       <c r="C67">
-        <v>-14.65474821008247</v>
+        <v>-13.72154560215638</v>
       </c>
       <c r="D67">
-        <v>33.97825178991753</v>
+        <v>34.91145439784362</v>
       </c>
       <c r="E67">
         <v>47.819</v>
@@ -6724,37 +6724,37 @@
         <v>1.1</v>
       </c>
       <c r="M67">
-        <v>9.3538458</v>
+        <v>9.034182300000001</v>
       </c>
       <c r="N67">
-        <v>-8.253845800000001</v>
+        <v>-7.934182300000002</v>
       </c>
       <c r="O67">
-        <v>-1.815846076</v>
+        <v>-1.745520106</v>
       </c>
       <c r="P67">
-        <v>-6.437999724000001</v>
+        <v>-6.188662194000001</v>
       </c>
       <c r="Q67">
-        <v>-6.317999724000001</v>
+        <v>-6.068662194000001</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.2653817450168112</v>
+        <v>0.2712416658872865</v>
       </c>
       <c r="T67">
-        <v>2.608030698258723</v>
+        <v>2.606452284405382</v>
       </c>
       <c r="U67">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V67">
-        <v>0.0258717115050154</v>
+        <v>0.02678715039876935</v>
       </c>
       <c r="W67">
-        <v>0.1852792004717461</v>
+        <v>0.1787792004717461</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="Y67">
-        <v>0.1175986886591609</v>
+        <v>0.1217597745398606</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6773,13 +6773,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.2150590910625189</v>
+        <v>0.2128850633671852</v>
       </c>
       <c r="C68">
-        <v>-15.70874026785827</v>
+        <v>-14.7772126135708</v>
       </c>
       <c r="D68">
-        <v>33.68085973214173</v>
+        <v>34.6123873864292</v>
       </c>
       <c r="E68">
         <v>48.5756</v>
@@ -6806,37 +6806,37 @@
         <v>1.1</v>
       </c>
       <c r="M68">
-        <v>9.49775112</v>
+        <v>9.173169720000001</v>
       </c>
       <c r="N68">
-        <v>-8.397751120000001</v>
+        <v>-8.073169720000001</v>
       </c>
       <c r="O68">
-        <v>-1.8475052464</v>
+        <v>-1.7760973384</v>
       </c>
       <c r="P68">
-        <v>-6.550245873600001</v>
+        <v>-6.2970723816</v>
       </c>
       <c r="Q68">
-        <v>-6.430245873600001</v>
+        <v>-6.1770723816</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.2727223845761291</v>
+        <v>0.2789458325310302</v>
       </c>
       <c r="T68">
-        <v>2.684737483501626</v>
+        <v>2.683112645711422</v>
       </c>
       <c r="U68">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V68">
-        <v>0.02547971587615154</v>
+        <v>0.02638128448363648</v>
       </c>
       <c r="W68">
-        <v>0.185353758040356</v>
+        <v>0.178853758040356</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="Y68">
-        <v>0.1158168903461433</v>
+        <v>0.1199149294710748</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6855,13 +6855,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.2168030910625188</v>
+        <v>0.2146290633671852</v>
       </c>
       <c r="C69">
-        <v>-16.75757169107845</v>
+        <v>-15.82779926413075</v>
       </c>
       <c r="D69">
-        <v>33.38862830892155</v>
+        <v>34.31840073586925</v>
       </c>
       <c r="E69">
         <v>49.3322</v>
@@ -6888,37 +6888,37 @@
         <v>1.1</v>
       </c>
       <c r="M69">
-        <v>9.64165644</v>
+        <v>9.31215714</v>
       </c>
       <c r="N69">
-        <v>-8.541656440000001</v>
+        <v>-8.21215714</v>
       </c>
       <c r="O69">
-        <v>-1.8791644168</v>
+        <v>-1.8066745708</v>
       </c>
       <c r="P69">
-        <v>-6.6624920232</v>
+        <v>-6.4054825692</v>
       </c>
       <c r="Q69">
-        <v>-6.5424920232</v>
+        <v>-6.2854825692</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.2805079113814664</v>
+        <v>0.2871169183653039</v>
       </c>
       <c r="T69">
-        <v>2.766093164819857</v>
+        <v>2.76441908952086</v>
       </c>
       <c r="U69">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V69">
-        <v>0.0250994216093433</v>
+        <v>0.02598753396895534</v>
       </c>
       <c r="W69">
-        <v>0.1854260900099029</v>
+        <v>0.1789260900099029</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         </is>
       </c>
       <c r="Y69">
-        <v>0.1140882800424695</v>
+        <v>0.1181251544043425</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -6937,13 +6937,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.2185470910625189</v>
+        <v>0.2163730633671852</v>
       </c>
       <c r="C70">
-        <v>-17.80137565275108</v>
+        <v>-16.87343391649028</v>
       </c>
       <c r="D70">
-        <v>33.10142434724892</v>
+        <v>34.02936608350972</v>
       </c>
       <c r="E70">
         <v>50.0888</v>
@@ -6970,37 +6970,37 @@
         <v>1.1</v>
       </c>
       <c r="M70">
-        <v>9.78556176</v>
+        <v>9.451144559999999</v>
       </c>
       <c r="N70">
-        <v>-8.685561760000001</v>
+        <v>-8.35114456</v>
       </c>
       <c r="O70">
-        <v>-1.9108235872</v>
+        <v>-1.8372518032</v>
       </c>
       <c r="P70">
-        <v>-6.7747381728</v>
+        <v>-6.5138927568</v>
       </c>
       <c r="Q70">
-        <v>-6.6547381728</v>
+        <v>-6.3938927568</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.2887800336121372</v>
+        <v>0.2957986970642196</v>
       </c>
       <c r="T70">
-        <v>2.852533576220478</v>
+        <v>2.850807186068387</v>
       </c>
       <c r="U70">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V70">
-        <v>0.02473031246802943</v>
+        <v>0.02560536435176482</v>
       </c>
       <c r="W70">
-        <v>0.1854962945685808</v>
+        <v>0.1789962945685808</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         </is>
       </c>
       <c r="Y70">
-        <v>0.1124105112183156</v>
+        <v>0.1163880197807492</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7019,13 +7019,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.2202910910625189</v>
+        <v>0.2181170633671852</v>
       </c>
       <c r="C71">
-        <v>-18.84028078282619</v>
+        <v>-17.91424064506248</v>
       </c>
       <c r="D71">
-        <v>32.81911921717381</v>
+        <v>33.74515935493752</v>
       </c>
       <c r="E71">
         <v>50.84540000000001</v>
@@ -7052,37 +7052,37 @@
         <v>1.1</v>
       </c>
       <c r="M71">
-        <v>9.929467080000002</v>
+        <v>9.590131980000001</v>
       </c>
       <c r="N71">
-        <v>-8.829467080000002</v>
+        <v>-8.490131980000001</v>
       </c>
       <c r="O71">
-        <v>-1.942482757600001</v>
+        <v>-1.8678290356</v>
       </c>
       <c r="P71">
-        <v>-6.886984322400002</v>
+        <v>-6.622302944400001</v>
       </c>
       <c r="Q71">
-        <v>-6.766984322400002</v>
+        <v>-6.502302944400001</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.2975858411480126</v>
+        <v>0.3050405905179042</v>
       </c>
       <c r="T71">
-        <v>2.944550788356623</v>
+        <v>2.942768708199625</v>
       </c>
       <c r="U71">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V71">
-        <v>0.02437190214240581</v>
+        <v>0.02523427211478272</v>
       </c>
       <c r="W71">
-        <v>0.1855644642125144</v>
+        <v>0.1790644642125144</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         </is>
       </c>
       <c r="Y71">
-        <v>0.1107813733745718</v>
+        <v>0.1147012368853759</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7101,13 +7101,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.2220350910625189</v>
+        <v>0.2198610633671852</v>
       </c>
       <c r="C72">
-        <v>-19.87441136028452</v>
+        <v>-18.95033941360918</v>
       </c>
       <c r="D72">
-        <v>32.54158863971548</v>
+        <v>33.46566058639083</v>
       </c>
       <c r="E72">
         <v>51.602</v>
@@ -7134,37 +7134,37 @@
         <v>1.1</v>
       </c>
       <c r="M72">
-        <v>10.0733724</v>
+        <v>9.7291194</v>
       </c>
       <c r="N72">
-        <v>-8.973372400000001</v>
+        <v>-8.6291194</v>
       </c>
       <c r="O72">
-        <v>-1.974141928</v>
+        <v>-1.898406268</v>
       </c>
       <c r="P72">
-        <v>-6.999230472000001</v>
+        <v>-6.730713132</v>
       </c>
       <c r="Q72">
-        <v>-6.879230472000001</v>
+        <v>-6.610713132</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.3069787025196131</v>
+        <v>0.3148986102018343</v>
       </c>
       <c r="T72">
-        <v>3.042702481301844</v>
+        <v>3.040860998472946</v>
       </c>
       <c r="U72">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V72">
-        <v>0.02402373211180002</v>
+        <v>0.02487378251314297</v>
       </c>
       <c r="W72">
-        <v>0.1856306861523357</v>
+        <v>0.1791306861523356</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="Y72">
-        <v>0.1091987823263637</v>
+        <v>0.1130626477870135</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7183,13 +7183,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.2237790910625188</v>
+        <v>0.2216050633671852</v>
       </c>
       <c r="C73">
-        <v>-20.90388749556197</v>
+        <v>-19.98184624407757</v>
       </c>
       <c r="D73">
-        <v>32.26871250443802</v>
+        <v>33.19075375592243</v>
       </c>
       <c r="E73">
         <v>52.3586</v>
@@ -7216,37 +7216,37 @@
         <v>1.1</v>
       </c>
       <c r="M73">
-        <v>10.21727772</v>
+        <v>9.86810682</v>
       </c>
       <c r="N73">
-        <v>-9.117277720000001</v>
+        <v>-8.76810682</v>
       </c>
       <c r="O73">
-        <v>-2.0058010984</v>
+        <v>-1.9289835004</v>
       </c>
       <c r="P73">
-        <v>-7.1114766216</v>
+        <v>-6.8391233196</v>
       </c>
       <c r="Q73">
-        <v>-6.9914766216</v>
+        <v>-6.7191233196</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.3170193474340824</v>
+        <v>0.3254364933122423</v>
       </c>
       <c r="T73">
-        <v>3.147623256519148</v>
+        <v>3.145718274282357</v>
       </c>
       <c r="U73">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V73">
-        <v>0.02368536968769016</v>
+        <v>0.02452344754816912</v>
       </c>
       <c r="W73">
-        <v>0.1856950426854013</v>
+        <v>0.1791950426854013</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         </is>
       </c>
       <c r="Y73">
-        <v>0.1076607713076825</v>
+        <v>0.1114702161280414</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7265,13 +7265,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.2255230910625188</v>
+        <v>0.2233490633671852</v>
       </c>
       <c r="C74">
-        <v>-21.9288253038721</v>
+        <v>-21.00887337718317</v>
       </c>
       <c r="D74">
-        <v>32.00037469612789</v>
+        <v>32.92032662281682</v>
       </c>
       <c r="E74">
         <v>53.11519999999999</v>
@@ -7298,37 +7298,37 @@
         <v>1.1</v>
       </c>
       <c r="M74">
-        <v>10.36118304</v>
+        <v>10.00709424</v>
       </c>
       <c r="N74">
-        <v>-9.261183039999999</v>
+        <v>-8.907094239999999</v>
       </c>
       <c r="O74">
-        <v>-2.0374602688</v>
+        <v>-1.9595607328</v>
       </c>
       <c r="P74">
-        <v>-7.223722771199999</v>
+        <v>-6.947533507199999</v>
       </c>
       <c r="Q74">
-        <v>-7.103722771199998</v>
+        <v>-6.827533507199999</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.3277771812710139</v>
+        <v>0.3367270823591081</v>
       </c>
       <c r="T74">
-        <v>3.260038372823403</v>
+        <v>3.258065355506727</v>
       </c>
       <c r="U74">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V74">
-        <v>0.02335640621980558</v>
+        <v>0.02418284411000011</v>
       </c>
       <c r="W74">
-        <v>0.185757611536993</v>
+        <v>0.179257611536993</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="Y74">
-        <v>0.106165482817298</v>
+        <v>0.1099220186818186</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7347,13 +7347,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.2272670910625189</v>
+        <v>0.2250930633671852</v>
       </c>
       <c r="C75">
-        <v>-22.94933706995181</v>
+        <v>-22.03152942520591</v>
       </c>
       <c r="D75">
-        <v>31.73646293004818</v>
+        <v>32.65427057479408</v>
       </c>
       <c r="E75">
         <v>53.87179999999999</v>
@@ -7380,37 +7380,37 @@
         <v>1.1</v>
       </c>
       <c r="M75">
-        <v>10.50508836</v>
+        <v>10.14608166</v>
       </c>
       <c r="N75">
-        <v>-9.405088359999999</v>
+        <v>-9.046081659999999</v>
       </c>
       <c r="O75">
-        <v>-2.0691194392</v>
+        <v>-1.9901379652</v>
       </c>
       <c r="P75">
-        <v>-7.335968920799999</v>
+        <v>-7.055943694799999</v>
       </c>
       <c r="Q75">
-        <v>-7.215968920799999</v>
+        <v>-6.935943694799999</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.3393318916884588</v>
+        <v>0.3488540113353714</v>
       </c>
       <c r="T75">
-        <v>3.380780534779825</v>
+        <v>3.378734442747717</v>
       </c>
       <c r="U75">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V75">
-        <v>0.02303645544967125</v>
+        <v>0.02385157227287683</v>
       </c>
       <c r="W75">
-        <v>0.1858184661734725</v>
+        <v>0.1793184661734725</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         </is>
       </c>
       <c r="Y75">
-        <v>0.1047111611348693</v>
+        <v>0.1084162376039856</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7429,13 +7429,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.2290110910625189</v>
+        <v>0.2268370633671852</v>
       </c>
       <c r="C76">
-        <v>-23.96553140472201</v>
+        <v>-23.04991951743639</v>
       </c>
       <c r="D76">
-        <v>31.47686859527798</v>
+        <v>32.39248048256361</v>
       </c>
       <c r="E76">
         <v>54.6284</v>
@@ -7462,37 +7462,37 @@
         <v>1.1</v>
       </c>
       <c r="M76">
-        <v>10.64899368</v>
+        <v>10.28506908</v>
       </c>
       <c r="N76">
-        <v>-9.548993680000001</v>
+        <v>-9.18506908</v>
       </c>
       <c r="O76">
-        <v>-2.1007786096</v>
+        <v>-2.0207151976</v>
       </c>
       <c r="P76">
-        <v>-7.4482150704</v>
+        <v>-7.1643538824</v>
       </c>
       <c r="Q76">
-        <v>-7.3282150704</v>
+        <v>-7.0443538824</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.3517754259841688</v>
+        <v>0.3619137810021164</v>
       </c>
       <c r="T76">
-        <v>3.51081055534828</v>
+        <v>3.508685767468783</v>
       </c>
       <c r="U76">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V76">
-        <v>0.02272515199764866</v>
+        <v>0.02352925372864876</v>
       </c>
       <c r="W76">
-        <v>0.1858776760900472</v>
+        <v>0.1793776760900472</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         </is>
       </c>
       <c r="Y76">
-        <v>0.1032961454438576</v>
+        <v>0.1069511533120397</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7511,13 +7511,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.2307550910625188</v>
+        <v>0.2285810633671853</v>
       </c>
       <c r="C77">
-        <v>-24.97751339432187</v>
+        <v>-24.06414543868156</v>
       </c>
       <c r="D77">
-        <v>31.22148660567812</v>
+        <v>32.13485456131844</v>
       </c>
       <c r="E77">
         <v>55.385</v>
@@ -7544,37 +7544,37 @@
         <v>1.1</v>
       </c>
       <c r="M77">
-        <v>10.792899</v>
+        <v>10.4240565</v>
       </c>
       <c r="N77">
-        <v>-9.692899000000001</v>
+        <v>-9.324056499999999</v>
       </c>
       <c r="O77">
-        <v>-2.13243778</v>
+        <v>-2.05129243</v>
       </c>
       <c r="P77">
-        <v>-7.560461220000001</v>
+        <v>-7.272764069999999</v>
       </c>
       <c r="Q77">
-        <v>-7.44046122</v>
+        <v>-7.152764069999999</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.3652144430235356</v>
+        <v>0.3760183322422011</v>
       </c>
       <c r="T77">
-        <v>3.651242977562212</v>
+        <v>3.649033198167535</v>
       </c>
       <c r="U77">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V77">
-        <v>0.02242214997101335</v>
+        <v>0.02321553034560011</v>
       </c>
       <c r="W77">
-        <v>0.1859353070755133</v>
+        <v>0.1794353070755133</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="Y77">
-        <v>0.1019188635046061</v>
+        <v>0.1055251379345459</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7593,13 +7593,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.2324990910625188</v>
+        <v>0.2303250633671852</v>
       </c>
       <c r="C78">
-        <v>-25.98538474194646</v>
+        <v>-25.07430576121309</v>
       </c>
       <c r="D78">
-        <v>30.97021525805354</v>
+        <v>31.8812942387869</v>
       </c>
       <c r="E78">
         <v>56.1416</v>
@@ -7626,37 +7626,37 @@
         <v>1.1</v>
       </c>
       <c r="M78">
-        <v>10.93680432</v>
+        <v>10.56304392</v>
       </c>
       <c r="N78">
-        <v>-9.836804320000001</v>
+        <v>-9.46304392</v>
       </c>
       <c r="O78">
-        <v>-2.1640969504</v>
+        <v>-2.0818696624</v>
       </c>
       <c r="P78">
-        <v>-7.6727073696</v>
+        <v>-7.381174257600001</v>
       </c>
       <c r="Q78">
-        <v>-7.5527073696</v>
+        <v>-7.2611742576</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.3797733781495162</v>
+        <v>0.3912982627522927</v>
       </c>
       <c r="T78">
-        <v>3.803378101627304</v>
+        <v>3.801076248091181</v>
       </c>
       <c r="U78">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V78">
-        <v>0.02212712168192107</v>
+        <v>0.02291006284105273</v>
       </c>
       <c r="W78">
-        <v>0.1859914214560986</v>
+        <v>0.1794914214560986</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         </is>
       </c>
       <c r="Y78">
-        <v>0.1005778258269139</v>
+        <v>0.1041366492775124</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7675,13 +7675,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.2342430910625188</v>
+        <v>0.2320690633671852</v>
       </c>
       <c r="C79">
-        <v>-26.98924390289007</v>
+        <v>-26.08049597051788</v>
       </c>
       <c r="D79">
-        <v>30.72295609710993</v>
+        <v>31.63170402948212</v>
       </c>
       <c r="E79">
         <v>56.8982</v>
@@ -7708,37 +7708,37 @@
         <v>1.1</v>
       </c>
       <c r="M79">
-        <v>11.08070964</v>
+        <v>10.70203134</v>
       </c>
       <c r="N79">
-        <v>-9.980709640000001</v>
+        <v>-9.602031340000002</v>
       </c>
       <c r="O79">
-        <v>-2.1957561208</v>
+        <v>-2.112446894800001</v>
       </c>
       <c r="P79">
-        <v>-7.7849535192</v>
+        <v>-7.489584445200001</v>
       </c>
       <c r="Q79">
-        <v>-7.6649535192</v>
+        <v>-7.369584445200001</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.3955983076342778</v>
+        <v>0.4079068828719576</v>
       </c>
       <c r="T79">
-        <v>3.968742366915448</v>
+        <v>3.966340432790798</v>
       </c>
       <c r="U79">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V79">
-        <v>0.02183975646527274</v>
+        <v>0.0226125295574027</v>
       </c>
       <c r="W79">
-        <v>0.1860460783203051</v>
+        <v>0.1795460783203051</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="Y79">
-        <v>0.09927162029669423</v>
+        <v>0.1027842252609213</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7757,13 +7757,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.2359870910625188</v>
+        <v>0.2338130633671852</v>
       </c>
       <c r="C80">
-        <v>-27.98918621317176</v>
+        <v>-27.08280858518741</v>
       </c>
       <c r="D80">
-        <v>30.47961378682824</v>
+        <v>31.38599141481259</v>
       </c>
       <c r="E80">
         <v>57.6548</v>
@@ -7790,37 +7790,37 @@
         <v>1.1</v>
       </c>
       <c r="M80">
-        <v>11.22461496</v>
+        <v>10.84101876</v>
       </c>
       <c r="N80">
-        <v>-10.12461496</v>
+        <v>-9.741018760000001</v>
       </c>
       <c r="O80">
-        <v>-2.2274152912</v>
+        <v>-2.1430241272</v>
       </c>
       <c r="P80">
-        <v>-7.897199668800001</v>
+        <v>-7.597994632800001</v>
       </c>
       <c r="Q80">
-        <v>-7.777199668800001</v>
+        <v>-7.477994632800001</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.4128618670721995</v>
+        <v>0.4260253775479558</v>
       </c>
       <c r="T80">
-        <v>4.149139747229786</v>
+        <v>4.146628634281289</v>
       </c>
       <c r="U80">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V80">
-        <v>0.02155975958751283</v>
+        <v>0.02232262533230779</v>
       </c>
       <c r="W80">
-        <v>0.1860993337264551</v>
+        <v>0.1795993337264551</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         </is>
       </c>
       <c r="Y80">
-        <v>0.09799890721596738</v>
+        <v>0.1014664787832172</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7839,13 +7839,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.2377310910625189</v>
+        <v>0.2355570633671852</v>
       </c>
       <c r="C81">
-        <v>-28.98530401209636</v>
+        <v>-28.08133327126275</v>
       </c>
       <c r="D81">
-        <v>30.24009598790364</v>
+        <v>31.14406672873725</v>
       </c>
       <c r="E81">
         <v>58.4114</v>
@@ -7872,37 +7872,37 @@
         <v>1.1</v>
       </c>
       <c r="M81">
-        <v>11.36852028</v>
+        <v>10.98000618</v>
       </c>
       <c r="N81">
-        <v>-10.26852028</v>
+        <v>-9.880006180000001</v>
       </c>
       <c r="O81">
-        <v>-2.2590744616</v>
+        <v>-2.1736013596</v>
       </c>
       <c r="P81">
-        <v>-8.0094458184</v>
+        <v>-7.7064048204</v>
       </c>
       <c r="Q81">
-        <v>-7.8894458184</v>
+        <v>-7.5864048204</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.4317695750280186</v>
+        <v>0.4458694431454776</v>
       </c>
       <c r="T81">
-        <v>4.346717830431205</v>
+        <v>4.344087140675637</v>
       </c>
       <c r="U81">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V81">
-        <v>0.02128685123830381</v>
+        <v>0.02204006045468365</v>
       </c>
       <c r="W81">
-        <v>0.1861512408944746</v>
+        <v>0.1796512408944746</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         </is>
       </c>
       <c r="Y81">
-        <v>0.0967584147195627</v>
+        <v>0.1001820929758347</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7921,13 +7921,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.2394750910625189</v>
+        <v>0.2373010633671852</v>
       </c>
       <c r="C82">
-        <v>-29.97768675908165</v>
+        <v>-29.07615695133148</v>
       </c>
       <c r="D82">
-        <v>30.00431324091835</v>
+        <v>30.90584304866852</v>
       </c>
       <c r="E82">
         <v>59.168</v>
@@ -7954,37 +7954,37 @@
         <v>1.1</v>
       </c>
       <c r="M82">
-        <v>11.5124256</v>
+        <v>11.1189936</v>
       </c>
       <c r="N82">
-        <v>-10.4124256</v>
+        <v>-10.0189936</v>
       </c>
       <c r="O82">
-        <v>-2.290733632</v>
+        <v>-2.204178592</v>
       </c>
       <c r="P82">
-        <v>-8.121691968</v>
+        <v>-7.814815008</v>
       </c>
       <c r="Q82">
-        <v>-8.001691968000001</v>
+        <v>-7.694815008</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.4525680537794196</v>
+        <v>0.4676979153027515</v>
       </c>
       <c r="T82">
-        <v>4.564053721952765</v>
+        <v>4.561291497709419</v>
       </c>
       <c r="U82">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V82">
-        <v>0.02102076559782502</v>
+        <v>0.0217645596990001</v>
       </c>
       <c r="W82">
-        <v>0.1862018503832937</v>
+        <v>0.1797018503832937</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="Y82">
-        <v>0.09554893453556823</v>
+        <v>0.09892981681363677</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -8003,13 +8003,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.2412190910625189</v>
+        <v>0.2390450633671852</v>
       </c>
       <c r="C83">
-        <v>-30.96642114506251</v>
+        <v>-30.0673639086559</v>
       </c>
       <c r="D83">
-        <v>29.77217885493749</v>
+        <v>30.6712360913441</v>
       </c>
       <c r="E83">
         <v>59.92460000000001</v>
@@ -8036,37 +8036,37 @@
         <v>1.1</v>
       </c>
       <c r="M83">
-        <v>11.65633092</v>
+        <v>11.25798102</v>
       </c>
       <c r="N83">
-        <v>-10.55633092</v>
+        <v>-10.15798102</v>
       </c>
       <c r="O83">
-        <v>-2.3223928024</v>
+        <v>-2.2347558244</v>
       </c>
       <c r="P83">
-        <v>-8.233938117600001</v>
+        <v>-7.923225195600001</v>
       </c>
       <c r="Q83">
-        <v>-8.113938117600002</v>
+        <v>-7.8032251956</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.4755558460835996</v>
+        <v>0.4918241213713173</v>
       </c>
       <c r="T83">
-        <v>4.804267075739753</v>
+        <v>4.801359471273073</v>
       </c>
       <c r="U83">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V83">
-        <v>0.02076124997316051</v>
+        <v>0.02149586143111121</v>
       </c>
       <c r="W83">
-        <v>0.1862512102551049</v>
+        <v>0.1797512102551049</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="Y83">
-        <v>0.09436931805982041</v>
+        <v>0.09770846105050546</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8085,13 +8085,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.2429630910625188</v>
+        <v>0.2407890633671852</v>
       </c>
       <c r="C84">
-        <v>-31.95159119876335</v>
+        <v>-31.05503588659403</v>
       </c>
       <c r="D84">
-        <v>29.54360880123665</v>
+        <v>30.44016411340597</v>
       </c>
       <c r="E84">
         <v>60.6812</v>
@@ -8118,37 +8118,37 @@
         <v>1.1</v>
       </c>
       <c r="M84">
-        <v>11.80023624</v>
+        <v>11.39696844</v>
       </c>
       <c r="N84">
-        <v>-10.70023624</v>
+        <v>-10.29696844</v>
       </c>
       <c r="O84">
-        <v>-2.3540519728</v>
+        <v>-2.2653330568</v>
       </c>
       <c r="P84">
-        <v>-8.3461842672</v>
+        <v>-8.031635383200001</v>
       </c>
       <c r="Q84">
-        <v>-8.226184267200001</v>
+        <v>-7.911635383200001</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.5010978375326886</v>
+        <v>0.5186310170030572</v>
       </c>
       <c r="T84">
-        <v>5.07117080216974</v>
+        <v>5.068101664121578</v>
       </c>
       <c r="U84">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V84">
-        <v>0.02050806399787806</v>
+        <v>0.02123371677951229</v>
       </c>
       <c r="W84">
-        <v>0.1862993662276036</v>
+        <v>0.1797993662276036</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="Y84">
-        <v>0.09321847271762751</v>
+        <v>0.09651689445232858</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8167,13 +8167,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.2447070910625189</v>
+        <v>0.2425330633671852</v>
       </c>
       <c r="C85">
-        <v>-32.93327838811253</v>
+        <v>-32.03925218356048</v>
       </c>
       <c r="D85">
-        <v>29.31852161188747</v>
+        <v>30.21254781643952</v>
       </c>
       <c r="E85">
         <v>61.4378</v>
@@ -8200,37 +8200,37 @@
         <v>1.1</v>
       </c>
       <c r="M85">
-        <v>11.94414156</v>
+        <v>11.53595586</v>
       </c>
       <c r="N85">
-        <v>-10.84414156</v>
+        <v>-10.43595586</v>
       </c>
       <c r="O85">
-        <v>-2.3857111432</v>
+        <v>-2.295910289200001</v>
       </c>
       <c r="P85">
-        <v>-8.458430416800001</v>
+        <v>-8.140045570800002</v>
       </c>
       <c r="Q85">
-        <v>-8.338430416800001</v>
+        <v>-8.020045570800002</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.5296447691522586</v>
+        <v>0.5485916650620606</v>
       </c>
       <c r="T85">
-        <v>5.369474967003255</v>
+        <v>5.366225291422847</v>
       </c>
       <c r="U85">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V85">
-        <v>0.02026097888946989</v>
+        <v>0.02097788886650612</v>
       </c>
       <c r="W85">
-        <v>0.1863463618152228</v>
+        <v>0.1798463618152228</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         </is>
       </c>
       <c r="Y85">
-        <v>0.09209535858849949</v>
+        <v>0.09535404030230044</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8249,13 +8249,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.2464510910625188</v>
+        <v>0.2442770633671852</v>
       </c>
       <c r="C86">
-        <v>-33.91156171705577</v>
+        <v>-33.02008974375816</v>
       </c>
       <c r="D86">
-        <v>29.09683828294423</v>
+        <v>29.98831025624184</v>
       </c>
       <c r="E86">
         <v>62.19439999999999</v>
@@ -8282,37 +8282,37 @@
         <v>1.1</v>
       </c>
       <c r="M86">
-        <v>12.08804688</v>
+        <v>11.67494328</v>
       </c>
       <c r="N86">
-        <v>-10.98804688</v>
+        <v>-10.57494328</v>
       </c>
       <c r="O86">
-        <v>-2.4173703136</v>
+        <v>-2.3264875216</v>
       </c>
       <c r="P86">
-        <v>-8.5706765664</v>
+        <v>-8.248455758399999</v>
       </c>
       <c r="Q86">
-        <v>-8.4506765664</v>
+        <v>-8.128455758399999</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.5617600672242743</v>
+        <v>0.5822973941284391</v>
       </c>
       <c r="T86">
-        <v>5.705067152440955</v>
+        <v>5.701614372136771</v>
       </c>
       <c r="U86">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V86">
-        <v>0.02001977675983335</v>
+        <v>0.02072815209428581</v>
       </c>
       <c r="W86">
-        <v>0.1863922384602797</v>
+        <v>0.1798922384602797</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         </is>
       </c>
       <c r="Y86">
-        <v>0.0909989852719697</v>
+        <v>0.09421887315584454</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8331,13 +8331,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.2481950910625189</v>
+        <v>0.2460210633671852</v>
       </c>
       <c r="C87">
-        <v>-34.8865178180106</v>
+        <v>-33.99762324389945</v>
       </c>
       <c r="D87">
-        <v>28.87848218198939</v>
+        <v>29.76737675610054</v>
       </c>
       <c r="E87">
         <v>62.95099999999999</v>
@@ -8364,37 +8364,37 @@
         <v>1.1</v>
       </c>
       <c r="M87">
-        <v>12.2319522</v>
+        <v>11.8139307</v>
       </c>
       <c r="N87">
-        <v>-11.1319522</v>
+        <v>-10.7139307</v>
       </c>
       <c r="O87">
-        <v>-2.449029484</v>
+        <v>-2.357064754</v>
       </c>
       <c r="P87">
-        <v>-8.682922715999998</v>
+        <v>-8.356865945999999</v>
       </c>
       <c r="Q87">
-        <v>-8.562922715999999</v>
+        <v>-8.236865946</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.598157405039226</v>
+        <v>0.6204972204036684</v>
       </c>
       <c r="T87">
-        <v>6.085404962603685</v>
+        <v>6.08172199694589</v>
       </c>
       <c r="U87">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V87">
-        <v>0.01978424997442355</v>
+        <v>0.02048429148141186</v>
       </c>
       <c r="W87">
-        <v>0.1864370356548647</v>
+        <v>0.1799370356548647</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         </is>
       </c>
       <c r="Y87">
-        <v>0.08992840897465249</v>
+        <v>0.09311041582459934</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8413,13 +8413,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.2499390910625189</v>
+        <v>0.2477650633671852</v>
       </c>
       <c r="C88">
-        <v>-35.85822104018867</v>
+        <v>-34.97192517612215</v>
       </c>
       <c r="D88">
-        <v>28.66337895981134</v>
+        <v>29.54967482387785</v>
       </c>
       <c r="E88">
         <v>63.7076</v>
@@ -8446,37 +8446,37 @@
         <v>1.1</v>
       </c>
       <c r="M88">
-        <v>12.37585752</v>
+        <v>11.95291812</v>
       </c>
       <c r="N88">
-        <v>-11.27585752</v>
+        <v>-10.85291812</v>
       </c>
       <c r="O88">
-        <v>-2.4806886544</v>
+        <v>-2.3876419864</v>
       </c>
       <c r="P88">
-        <v>-8.795168865600001</v>
+        <v>-8.4652761336</v>
       </c>
       <c r="Q88">
-        <v>-8.675168865600002</v>
+        <v>-8.345276133600001</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.6397543625420279</v>
+        <v>0.6641541647182162</v>
       </c>
       <c r="T88">
-        <v>6.520076745646806</v>
+        <v>6.516130711013454</v>
       </c>
       <c r="U88">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V88">
-        <v>0.01955420055611629</v>
+        <v>0.02024610204558149</v>
       </c>
       <c r="W88">
-        <v>0.1864807910542267</v>
+        <v>0.1799807910542267</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         </is>
       </c>
       <c r="Y88">
-        <v>0.08888272980052858</v>
+        <v>0.09202773657082486</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8495,13 +8495,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.2516830910625188</v>
+        <v>0.2495090633671852</v>
       </c>
       <c r="C89">
-        <v>-36.82674353400006</v>
+        <v>-35.94306592729299</v>
       </c>
       <c r="D89">
-        <v>28.45145646599994</v>
+        <v>29.335134072707</v>
       </c>
       <c r="E89">
         <v>64.46419999999999</v>
@@ -8528,37 +8528,37 @@
         <v>1.1</v>
       </c>
       <c r="M89">
-        <v>12.51976284</v>
+        <v>12.09190554</v>
       </c>
       <c r="N89">
-        <v>-11.41976284</v>
+        <v>-10.99190554</v>
       </c>
       <c r="O89">
-        <v>-2.5123478248</v>
+        <v>-2.4182192188</v>
       </c>
       <c r="P89">
-        <v>-8.907415015199998</v>
+        <v>-8.5736863212</v>
       </c>
       <c r="Q89">
-        <v>-8.787415015199999</v>
+        <v>-8.453686321200001</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.6877508519683376</v>
+        <v>0.7145275620042328</v>
       </c>
       <c r="T89">
-        <v>7.021621110696559</v>
+        <v>7.017371534937566</v>
       </c>
       <c r="U89">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V89">
-        <v>0.01932943963018393</v>
+        <v>0.02001338822896561</v>
       </c>
       <c r="W89">
-        <v>0.186523540582339</v>
+        <v>0.180023540582339</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         </is>
       </c>
       <c r="Y89">
-        <v>0.08786108922810876</v>
+        <v>0.09096994649529822</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8577,13 +8577,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.2534270910625189</v>
+        <v>0.2512530633671852</v>
       </c>
       <c r="C90">
-        <v>-37.79215533174096</v>
+        <v>-36.91111385488199</v>
       </c>
       <c r="D90">
-        <v>28.24264466825904</v>
+        <v>29.12368614511801</v>
       </c>
       <c r="E90">
         <v>65.2208</v>
@@ -8610,37 +8610,37 @@
         <v>1.1</v>
       </c>
       <c r="M90">
-        <v>12.66366816</v>
+        <v>12.23089296</v>
       </c>
       <c r="N90">
-        <v>-11.56366816</v>
+        <v>-11.13089296</v>
       </c>
       <c r="O90">
-        <v>-2.5440069952</v>
+        <v>-2.4487964512</v>
       </c>
       <c r="P90">
-        <v>-9.0196611648</v>
+        <v>-8.682096508800001</v>
       </c>
       <c r="Q90">
-        <v>-8.899661164800001</v>
+        <v>-8.562096508800002</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.7437467562990325</v>
+        <v>0.7732965255045855</v>
       </c>
       <c r="T90">
-        <v>7.606756203254608</v>
+        <v>7.602152496182363</v>
       </c>
       <c r="U90">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V90">
-        <v>0.01910978690711365</v>
+        <v>0.01978596336272736</v>
       </c>
       <c r="W90">
-        <v>0.186565318530267</v>
+        <v>0.180065318530267</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         </is>
       </c>
       <c r="Y90">
-        <v>0.08686266775960749</v>
+        <v>0.08993619710330614</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8659,13 +8659,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.2551710910625188</v>
+        <v>0.2529970633671852</v>
       </c>
       <c r="C91">
-        <v>-38.75452442475387</v>
+        <v>-37.87613535957841</v>
       </c>
       <c r="D91">
-        <v>28.03687557524614</v>
+        <v>28.91526464042159</v>
       </c>
       <c r="E91">
         <v>65.9774</v>
@@ -8692,37 +8692,37 @@
         <v>1.1</v>
       </c>
       <c r="M91">
-        <v>12.80757348</v>
+        <v>12.36988038</v>
       </c>
       <c r="N91">
-        <v>-11.70757348</v>
+        <v>-11.26988038</v>
       </c>
       <c r="O91">
-        <v>-2.5756661656</v>
+        <v>-2.4793736836</v>
       </c>
       <c r="P91">
-        <v>-9.131907314400001</v>
+        <v>-8.790506696400001</v>
       </c>
       <c r="Q91">
-        <v>-9.011907314400002</v>
+        <v>-8.670506696400002</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.8099237341443991</v>
+        <v>0.8427507550959116</v>
       </c>
       <c r="T91">
-        <v>8.298279494459571</v>
+        <v>8.293257268562579</v>
       </c>
       <c r="U91">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V91">
-        <v>0.01889507020029215</v>
+        <v>0.01956364916764054</v>
       </c>
       <c r="W91">
-        <v>0.1866061576479044</v>
+        <v>0.1801061576479044</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         </is>
       </c>
       <c r="Y91">
-        <v>0.08588668272860067</v>
+        <v>0.08892567803472962</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8741,13 +8741,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.2569150910625189</v>
+        <v>0.2547410633671852</v>
       </c>
       <c r="C92">
-        <v>-39.71391683723936</v>
+        <v>-38.83819495481107</v>
       </c>
       <c r="D92">
-        <v>27.83408316276063</v>
+        <v>28.70980504518893</v>
       </c>
       <c r="E92">
         <v>66.73399999999999</v>
@@ -8774,37 +8774,37 @@
         <v>1.1</v>
       </c>
       <c r="M92">
-        <v>12.9514788</v>
+        <v>12.5088678</v>
       </c>
       <c r="N92">
-        <v>-11.8514788</v>
+        <v>-11.4088678</v>
       </c>
       <c r="O92">
-        <v>-2.607325336</v>
+        <v>-2.509950916</v>
       </c>
       <c r="P92">
-        <v>-9.244153464</v>
+        <v>-8.898916884</v>
       </c>
       <c r="Q92">
-        <v>-9.124153464000001</v>
+        <v>-8.778916884000001</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.8893361075588393</v>
+        <v>0.9260958306055029</v>
       </c>
       <c r="T92">
-        <v>9.128107443905531</v>
+        <v>9.122582995418838</v>
       </c>
       <c r="U92">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V92">
-        <v>0.01868512497584446</v>
+        <v>0.01934627528800009</v>
       </c>
       <c r="W92">
-        <v>0.1866460892295944</v>
+        <v>0.1801460892295944</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="Y92">
-        <v>0.08493238625383837</v>
+        <v>0.08793761494545493</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8823,13 +8823,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.2586590910625188</v>
+        <v>0.2564850633671852</v>
       </c>
       <c r="C93">
-        <v>-40.67039669688751</v>
+        <v>-39.79735533332565</v>
       </c>
       <c r="D93">
-        <v>27.63420330311249</v>
+        <v>28.50724466667435</v>
       </c>
       <c r="E93">
         <v>67.4906</v>
@@ -8856,37 +8856,37 @@
         <v>1.1</v>
       </c>
       <c r="M93">
-        <v>13.09538412</v>
+        <v>12.64785522</v>
       </c>
       <c r="N93">
-        <v>-11.99538412</v>
+        <v>-11.54785522</v>
       </c>
       <c r="O93">
-        <v>-2.6389845064</v>
+        <v>-2.5405281484</v>
       </c>
       <c r="P93">
-        <v>-9.356399613600001</v>
+        <v>-9.007327071600001</v>
       </c>
       <c r="Q93">
-        <v>-9.236399613600002</v>
+        <v>-8.887327071600001</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>0.9863956750653771</v>
+        <v>1.027962034006115</v>
       </c>
       <c r="T93">
-        <v>10.14234160433948</v>
+        <v>10.13620332824316</v>
       </c>
       <c r="U93">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V93">
-        <v>0.01847979393215386</v>
+        <v>0.01913367885626382</v>
       </c>
       <c r="W93">
-        <v>0.1866851431941043</v>
+        <v>0.1801851431941043</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         </is>
       </c>
       <c r="Y93">
-        <v>0.08399906332797202</v>
+        <v>0.08697126752847184</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -8905,13 +8905,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.2604030910625189</v>
+        <v>0.2582290633671852</v>
       </c>
       <c r="C94">
-        <v>-41.62402630248768</v>
+        <v>-40.75367743096335</v>
       </c>
       <c r="D94">
-        <v>27.43717369751232</v>
+        <v>28.30752256903665</v>
       </c>
       <c r="E94">
         <v>68.24720000000001</v>
@@ -8938,37 +8938,37 @@
         <v>1.1</v>
       </c>
       <c r="M94">
-        <v>13.23928944</v>
+        <v>12.78684264</v>
       </c>
       <c r="N94">
-        <v>-12.13928944</v>
+        <v>-11.68684264</v>
       </c>
       <c r="O94">
-        <v>-2.670643676800001</v>
+        <v>-2.571105380800001</v>
       </c>
       <c r="P94">
-        <v>-9.468645763200001</v>
+        <v>-9.115737259200001</v>
       </c>
       <c r="Q94">
-        <v>-9.348645763200002</v>
+        <v>-8.995737259200002</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>1.107720134448549</v>
+        <v>1.155294788256879</v>
       </c>
       <c r="T94">
-        <v>11.41013430488192</v>
+        <v>11.40322874427355</v>
       </c>
       <c r="U94">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V94">
-        <v>0.01827892660680436</v>
+        <v>0.01892570408608704</v>
       </c>
       <c r="W94">
-        <v>0.1867233481593858</v>
+        <v>0.1802233481593858</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>0.08308603003092885</v>
+        <v>0.08602592766403194</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -8987,13 +8987,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.2621470910625189</v>
+        <v>0.2599730633671853</v>
       </c>
       <c r="C95">
-        <v>-42.57486618866648</v>
+        <v>-41.70722048777709</v>
       </c>
       <c r="D95">
-        <v>27.24293381133352</v>
+        <v>28.11057951222291</v>
       </c>
       <c r="E95">
         <v>69.0038</v>
@@ -9020,37 +9020,37 @@
         <v>1.1</v>
       </c>
       <c r="M95">
-        <v>13.38319476</v>
+        <v>12.92583006</v>
       </c>
       <c r="N95">
-        <v>-12.28319476</v>
+        <v>-11.82583006</v>
       </c>
       <c r="O95">
-        <v>-2.7023028472</v>
+        <v>-2.6016826132</v>
       </c>
       <c r="P95">
-        <v>-9.5808919128</v>
+        <v>-9.2241474468</v>
       </c>
       <c r="Q95">
-        <v>-9.460891912800001</v>
+        <v>-9.104147446800001</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>1.263708725084057</v>
+        <v>1.319008329436434</v>
       </c>
       <c r="T95">
-        <v>13.04015349129362</v>
+        <v>13.03226142202692</v>
       </c>
       <c r="U95">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V95">
-        <v>0.01808237900888173</v>
+        <v>0.01872220189161299</v>
       </c>
       <c r="W95">
-        <v>0.1867607315125107</v>
+        <v>0.1802607315125107</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>0.0821926318585533</v>
+        <v>0.08510091768914996</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9069,13 +9069,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.2638910910625188</v>
+        <v>0.2617170633671853</v>
       </c>
       <c r="C96">
-        <v>-43.52297518789528</v>
+        <v>-42.65804210661434</v>
       </c>
       <c r="D96">
-        <v>27.05142481210472</v>
+        <v>27.91635789338567</v>
       </c>
       <c r="E96">
         <v>69.7604</v>
@@ -9102,37 +9102,37 @@
         <v>1.1</v>
       </c>
       <c r="M96">
-        <v>13.52710008</v>
+        <v>13.06481748</v>
       </c>
       <c r="N96">
-        <v>-12.42710008</v>
+        <v>-11.96481748</v>
       </c>
       <c r="O96">
-        <v>-2.733962017600001</v>
+        <v>-2.6322598456</v>
       </c>
       <c r="P96">
-        <v>-9.693138062400003</v>
+        <v>-9.332557634400001</v>
       </c>
       <c r="Q96">
-        <v>-9.573138062400004</v>
+        <v>-9.212557634400001</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>1.471693512598066</v>
+        <v>1.537293051009173</v>
       </c>
       <c r="T96">
-        <v>15.21351240650923</v>
+        <v>15.20430499236474</v>
       </c>
       <c r="U96">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V96">
-        <v>0.01789001327474469</v>
+        <v>0.01852302953106391</v>
       </c>
       <c r="W96">
-        <v>0.1867973194751436</v>
+        <v>0.1802973194751436</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         </is>
       </c>
       <c r="Y96">
-        <v>0.08131824215793038</v>
+        <v>0.08419558877756317</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9151,13 +9151,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.2656350910625189</v>
+        <v>0.2634610633671852</v>
       </c>
       <c r="C97">
-        <v>-44.46841048990058</v>
+        <v>-43.60619830928778</v>
       </c>
       <c r="D97">
-        <v>26.86258951009942</v>
+        <v>27.72480169071222</v>
       </c>
       <c r="E97">
         <v>70.517</v>
@@ -9184,37 +9184,37 @@
         <v>1.1</v>
       </c>
       <c r="M97">
-        <v>13.6710054</v>
+        <v>13.2038049</v>
       </c>
       <c r="N97">
-        <v>-12.5710054</v>
+        <v>-12.1038049</v>
       </c>
       <c r="O97">
-        <v>-2.765621188</v>
+        <v>-2.662837078</v>
       </c>
       <c r="P97">
-        <v>-9.805384212</v>
+        <v>-9.440967822000001</v>
       </c>
       <c r="Q97">
-        <v>-9.685384212000001</v>
+        <v>-9.320967822000002</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>1.762872215117681</v>
+        <v>1.842891661211008</v>
       </c>
       <c r="T97">
-        <v>18.25621488781108</v>
+        <v>18.2451659908377</v>
       </c>
       <c r="U97">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V97">
-        <v>0.01770169734553685</v>
+        <v>0.01832805027284219</v>
       </c>
       <c r="W97">
-        <v>0.1868331371648789</v>
+        <v>0.1803331371648789</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         </is>
       </c>
       <c r="Y97">
-        <v>0.08046226066153117</v>
+        <v>0.08330931942200992</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9233,13 +9233,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.2673790910625188</v>
+        <v>0.2652050633671852</v>
       </c>
       <c r="C98">
-        <v>-45.41122769860321</v>
+        <v>-44.55174359044942</v>
       </c>
       <c r="D98">
-        <v>26.67637230139677</v>
+        <v>27.53585640955056</v>
       </c>
       <c r="E98">
         <v>71.27359999999999</v>
@@ -9266,37 +9266,37 @@
         <v>1.1</v>
       </c>
       <c r="M98">
-        <v>13.81491072</v>
+        <v>13.34279232</v>
       </c>
       <c r="N98">
-        <v>-12.71491072</v>
+        <v>-12.24279232</v>
       </c>
       <c r="O98">
-        <v>-2.7972803584</v>
+        <v>-2.6934143104</v>
       </c>
       <c r="P98">
-        <v>-9.917630361599999</v>
+        <v>-9.549378009599998</v>
       </c>
       <c r="Q98">
-        <v>-9.7976303616</v>
+        <v>-9.429378009599999</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>2.199640268897096</v>
+        <v>2.301289576513755</v>
       </c>
       <c r="T98">
-        <v>22.8202686097638</v>
+        <v>22.80645748854707</v>
       </c>
       <c r="U98">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V98">
-        <v>0.01751730466485418</v>
+        <v>0.01813713308250009</v>
       </c>
       <c r="W98">
-        <v>0.1868682086527447</v>
+        <v>0.1803682086527447</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         </is>
       </c>
       <c r="Y98">
-        <v>0.07962411211297349</v>
+        <v>0.08244151401136401</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9315,13 +9315,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.2691230910625189</v>
+        <v>0.2669490633671852</v>
       </c>
       <c r="C99">
-        <v>-46.35148088670582</v>
+        <v>-45.49473096927647</v>
       </c>
       <c r="D99">
-        <v>26.49271911329418</v>
+        <v>27.34946903072352</v>
       </c>
       <c r="E99">
         <v>72.03019999999999</v>
@@ -9348,37 +9348,37 @@
         <v>1.1</v>
       </c>
       <c r="M99">
-        <v>13.95881604</v>
+        <v>13.48177974</v>
       </c>
       <c r="N99">
-        <v>-12.85881604</v>
+        <v>-12.38177974</v>
       </c>
       <c r="O99">
-        <v>-2.8289395288</v>
+        <v>-2.7239915428</v>
       </c>
       <c r="P99">
-        <v>-10.0298765112</v>
+        <v>-9.657788197199999</v>
       </c>
       <c r="Q99">
-        <v>-9.9098765112</v>
+        <v>-9.537788197199999</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>2.927587025196127</v>
+        <v>3.06528610201834</v>
       </c>
       <c r="T99">
-        <v>30.4270248130184</v>
+        <v>30.40860998472943</v>
       </c>
       <c r="U99">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V99">
-        <v>0.01733671389511342</v>
+        <v>0.01795015232907225</v>
       </c>
       <c r="W99">
-        <v>0.1869025570171494</v>
+        <v>0.1804025570171494</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         </is>
       </c>
       <c r="Y99">
-        <v>0.07880324497778823</v>
+        <v>0.08159160149578293</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9397,13 +9397,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.2708670910625188</v>
+        <v>0.2686930633671852</v>
       </c>
       <c r="C100">
-        <v>-47.28922264804053</v>
+        <v>-46.43521203907234</v>
       </c>
       <c r="D100">
-        <v>26.31157735195947</v>
+        <v>27.16558796092766</v>
       </c>
       <c r="E100">
         <v>72.7868</v>
@@ -9430,37 +9430,37 @@
         <v>1.1</v>
       </c>
       <c r="M100">
-        <v>14.10272136</v>
+        <v>13.62076716</v>
       </c>
       <c r="N100">
-        <v>-13.00272136</v>
+        <v>-12.52076716</v>
       </c>
       <c r="O100">
-        <v>-2.8605986992</v>
+        <v>-2.7545687752</v>
       </c>
       <c r="P100">
-        <v>-10.1421226608</v>
+        <v>-9.766198384799999</v>
       </c>
       <c r="Q100">
-        <v>-10.0221226608</v>
+        <v>-9.6461983848</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>4.383480537794191</v>
+        <v>4.59327915302751</v>
       </c>
       <c r="T100">
-        <v>45.6405372195276</v>
+        <v>45.61291497709414</v>
       </c>
       <c r="U100">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V100">
-        <v>0.01715980865128573</v>
+        <v>0.01776698750938784</v>
       </c>
       <c r="W100">
-        <v>0.1869362043945255</v>
+        <v>0.1804362043945255</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         </is>
       </c>
       <c r="Y100">
-        <v>0.07799913023311689</v>
+        <v>0.08075903413358099</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.2726110910625189</v>
+        <v>0.2704370633671853</v>
       </c>
       <c r="C101">
-        <v>-48.22450414778403</v>
+        <v>-47.37323701487993</v>
       </c>
       <c r="D101">
-        <v>26.13289585221596</v>
+        <v>26.98416298512006</v>
       </c>
       <c r="E101">
         <v>73.54339999999999</v>
@@ -9512,37 +9512,37 @@
         <v>1.1</v>
       </c>
       <c r="M101">
-        <v>14.24662668</v>
+        <v>13.75975458</v>
       </c>
       <c r="N101">
-        <v>-13.14662668</v>
+        <v>-12.65975458</v>
       </c>
       <c r="O101">
-        <v>-2.8922578696</v>
+        <v>-2.7851460076</v>
       </c>
       <c r="P101">
-        <v>-10.2543688104</v>
+        <v>-9.8746085724</v>
       </c>
       <c r="Q101">
-        <v>-10.1343688104</v>
+        <v>-9.7546085724</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>8.751161075588383</v>
+        <v>9.177258306055021</v>
       </c>
       <c r="T101">
-        <v>91.2810744390552</v>
+        <v>91.2258299541883</v>
       </c>
       <c r="U101">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V101">
-        <v>0.01698647725076769</v>
+        <v>0.01758752298909099</v>
       </c>
       <c r="W101">
-        <v>0.186969172026904</v>
+        <v>0.180469172026904</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         </is>
       </c>
       <c r="Y101">
-        <v>0.07721126023076219</v>
+        <v>0.0799432863140499</v>
       </c>
       <c r="Z101">
         <v>0</v>
